--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT4" t="n">
         <v>2.27</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.07</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT37" t="n">
         <v>0.53</v>
@@ -9632,7 +9632,7 @@
         <v>0.6</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -12880,7 +12880,7 @@
         <v>1.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT69" t="n">
         <v>0.4</v>
@@ -15316,7 +15316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU73" t="n">
         <v>1.46</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT82" t="n">
         <v>1.4</v>
@@ -18970,7 +18970,7 @@
         <v>1.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT101" t="n">
         <v>0.87</v>
@@ -22012,7 +22012,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT106" t="n">
         <v>0.93</v>
@@ -22421,7 +22421,7 @@
         <v>1.47</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -26681,7 +26681,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT129" t="n">
         <v>1.33</v>
@@ -29526,7 +29526,7 @@
         <v>1.87</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -29929,7 +29929,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT145" t="n">
         <v>2.73</v>
@@ -31350,7 +31350,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT152" t="n">
         <v>0.73</v>
@@ -32774,7 +32774,7 @@
         <v>1.4</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -33583,7 +33583,7 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT163" t="n">
         <v>1.07</v>
@@ -36428,7 +36428,7 @@
         <v>1.13</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -37237,7 +37237,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT181" t="n">
         <v>0.67</v>
@@ -39676,7 +39676,7 @@
         <v>2.73</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU193" t="n">
         <v>2.57</v>
@@ -39876,7 +39876,7 @@
         <v>0.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT194" t="n">
         <v>0.4</v>
@@ -42721,7 +42721,7 @@
         <v>1.13</v>
       </c>
       <c r="AT208" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU208" t="n">
         <v>1.12</v>
@@ -44545,7 +44545,7 @@
         <v>1.31</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AT217" t="n">
         <v>1.13</v>
@@ -45766,7 +45766,7 @@
         <v>2.2</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="AU223" t="n">
         <v>1.71</v>
@@ -49269,6 +49269,209 @@
       </c>
       <c r="BK240" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2447780</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45036.51041666666</v>
+      </c>
+      <c r="F241" t="n">
+        <v>30</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>10</v>
+      </c>
+      <c r="R241" t="n">
+        <v>2</v>
+      </c>
+      <c r="S241" t="n">
+        <v>12</v>
+      </c>
+      <c r="T241" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2</v>
+      </c>
+      <c r="V241" t="n">
+        <v>3</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT2" t="n">
         <v>1.33</v>
@@ -1106,7 +1106,7 @@
         <v>1.13</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.13</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
         <v>2.07</v>
@@ -2992,7 +2992,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2447554</v>
+        <v>2447560</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3012,182 +3012,182 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>['9', '15', '21', '25', '45']</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.17</v>
       </c>
       <c r="U13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>23</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z13" t="n">
         <v>2.38</v>
       </c>
-      <c r="V13" t="n">
-        <v>7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.45</v>
-      </c>
       <c r="AA13" t="n">
-        <v>5.75</v>
+        <v>2.63</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="AD13" t="n">
-        <v>4.33</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.5</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
         <v>1.01</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AK13" t="n">
-        <v>2.05</v>
+        <v>4.04</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AN13" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.87</v>
+        <v>2.73</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.59</v>
+        <v>1.47</v>
       </c>
       <c r="BC13" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="BD13" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BE13" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="BF13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BG13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI13" t="n">
         <v>3</v>
       </c>
       <c r="BJ13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BK13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2447560</v>
+        <v>2447554</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3215,182 +3215,182 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>5</v>
       </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>['9', '15', '21', '25', '45']</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>12</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2</v>
-      </c>
-      <c r="S14" t="n">
-        <v>14</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>4.75</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>26</v>
       </c>
       <c r="AF14" t="n">
         <v>1.01</v>
       </c>
       <c r="AG14" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.04</v>
+        <v>1.2</v>
       </c>
       <c r="AI14" t="n">
-        <v>10.5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AK14" t="n">
-        <v>4.04</v>
+        <v>2.05</v>
       </c>
       <c r="AL14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP14" t="n">
         <v>2.75</v>
       </c>
-      <c r="AM14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.73</v>
+        <v>1.87</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="BF14" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BG14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BI14" t="n">
         <v>3</v>
       </c>
       <c r="BJ14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BK14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -3745,7 +3745,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.13</v>
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -4616,7 +4616,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2447564</v>
+        <v>2447568</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -4636,19 +4636,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -4657,161 +4657,161 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>['79']</t>
+          <t>['43']</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>['14', '71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>11</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8</v>
       </c>
-      <c r="R21" t="n">
-        <v>8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>16</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AH21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH21" t="n">
         <v>12</v>
       </c>
-      <c r="AD21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG21" t="n">
+      <c r="BI21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK21" t="n">
         <v>9</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -4819,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2447566</v>
+        <v>2447564</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -4839,182 +4839,182 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['14', '71']</t>
         </is>
       </c>
       <c r="Q22" t="n">
         <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="T22" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.56</v>
+        <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>3.75</v>
+        <v>6.6</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.65</v>
+        <v>1.13</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG22" t="n">
         <v>9</v>
       </c>
-      <c r="AH22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>2</v>
-      </c>
       <c r="BH22" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI22" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ22" t="n">
         <v>4</v>
       </c>
-      <c r="BJ22" t="n">
-        <v>14</v>
-      </c>
       <c r="BK22" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -5022,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2447567</v>
+        <v>2447566</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -5042,12 +5042,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -5079,49 +5079,49 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="n">
         <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AD23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AE23" t="n">
-        <v>4.74</v>
+        <v>4.65</v>
       </c>
       <c r="AF23" t="n">
         <v>1.03</v>
@@ -5136,46 +5136,46 @@
         <v>3.3</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="AK23" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="AL23" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AN23" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AO23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AQ23" t="n">
         <v>3</v>
       </c>
       <c r="AR23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.47</v>
+        <v>2.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>1.25</v>
+        <v>2.29</v>
       </c>
       <c r="AV23" t="n">
-        <v>1.52</v>
+        <v>0.97</v>
       </c>
       <c r="AW23" t="n">
-        <v>2.77</v>
+        <v>3.26</v>
       </c>
       <c r="AX23" t="n">
         <v>0</v>
@@ -5202,22 +5202,22 @@
         <v>0</v>
       </c>
       <c r="BF23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI23" t="n">
         <v>4</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>3</v>
       </c>
       <c r="BJ23" t="n">
         <v>14</v>
       </c>
       <c r="BK23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -5225,7 +5225,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2447568</v>
+        <v>2447567</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -5245,35 +5245,35 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>['43']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -5282,103 +5282,103 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="T24" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
         <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X24" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Y24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Z24" t="n">
         <v>1.35</v>
       </c>
       <c r="AA24" t="n">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="AB24" t="n">
         <v>1.07</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.6</v>
+        <v>4.74</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO24" t="n">
         <v>1.33</v>
       </c>
-      <c r="AI24" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AO24" t="n">
+      <c r="AP24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU24" t="n">
         <v>1.25</v>
       </c>
-      <c r="AP24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>1.81</v>
-      </c>
       <c r="AV24" t="n">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.91</v>
+        <v>2.77</v>
       </c>
       <c r="AX24" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="BB24" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BC24" t="n">
         <v>0</v>
@@ -5405,22 +5405,22 @@
         <v>0</v>
       </c>
       <c r="BF24" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ24" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BK24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.93</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
         <v>2.27</v>
@@ -6646,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>2447578</v>
+        <v>2447574</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -6666,182 +6666,182 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['43', '73']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH31" t="n">
         <v>5</v>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>['9', '35', '82']</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>['44', '75']</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>6</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH31" t="n">
+      <c r="BI31" t="n">
         <v>7</v>
       </c>
-      <c r="BI31" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ31" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BK31" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -6849,7 +6849,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>2447574</v>
+        <v>2447578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -6869,182 +6869,182 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['9', '35', '82']</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>['43', '73']</t>
+          <t>['44', '75']</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T32" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD32" t="n">
         <v>3.25</v>
       </c>
-      <c r="Z32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AE32" t="n">
-        <v>2.19</v>
+        <v>2.84</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH32" t="n">
         <v>7</v>
       </c>
-      <c r="AH32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG32" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH32" t="n">
-        <v>5</v>
-      </c>
       <c r="BI32" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BJ32" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BK32" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -7193,10 +7193,10 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -8008,7 +8008,7 @@
         <v>2.33</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.33</v>
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>2447593</v>
+        <v>2447588</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,59 +8493,59 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['27', '79']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>['57', '71']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T40" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U40" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V40" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="W40" t="n">
         <v>1.45</v>
@@ -8554,25 +8554,25 @@
         <v>2.6</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.85</v>
+        <v>6.75</v>
       </c>
       <c r="AB40" t="n">
         <v>1.07</v>
       </c>
       <c r="AC40" t="n">
-        <v>3.26</v>
+        <v>2.61</v>
       </c>
       <c r="AD40" t="n">
         <v>3.3</v>
       </c>
       <c r="AE40" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="AF40" t="n">
         <v>1.03</v>
@@ -8587,46 +8587,46 @@
         <v>3.3</v>
       </c>
       <c r="AJ40" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="AK40" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AL40" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AM40" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AN40" t="n">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AO40" t="n">
         <v>1.25</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR40" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AT40" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU40" t="n">
         <v>1.4</v>
       </c>
-      <c r="AU40" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AV40" t="n">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.91</v>
+        <v>2.99</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
@@ -8659,16 +8659,16 @@
         <v>5</v>
       </c>
       <c r="BH40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BI40" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BJ40" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BK40" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>2447588</v>
+        <v>2447593</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,59 +8696,59 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27', '79']</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57', '71']</t>
         </is>
       </c>
       <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
         <v>6</v>
       </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
       <c r="S41" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="T41" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U41" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V41" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="W41" t="n">
         <v>1.45</v>
@@ -8757,25 +8757,25 @@
         <v>2.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="AB41" t="n">
         <v>1.07</v>
       </c>
       <c r="AC41" t="n">
-        <v>2.61</v>
+        <v>3.26</v>
       </c>
       <c r="AD41" t="n">
         <v>3.3</v>
       </c>
       <c r="AE41" t="n">
-        <v>2.42</v>
+        <v>2.04</v>
       </c>
       <c r="AF41" t="n">
         <v>1.03</v>
@@ -8790,46 +8790,46 @@
         <v>3.3</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="AK41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL41" t="n">
         <v>1.75</v>
       </c>
-      <c r="AL41" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AM41" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AO41" t="n">
         <v>1.25</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR41" t="n">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AS41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT41" t="n">
         <v>1.4</v>
       </c>
-      <c r="AT41" t="n">
-        <v>2.27</v>
-      </c>
       <c r="AU41" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="AV41" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AW41" t="n">
-        <v>2.99</v>
+        <v>2.91</v>
       </c>
       <c r="AX41" t="n">
         <v>0</v>
@@ -8862,16 +8862,16 @@
         <v>5</v>
       </c>
       <c r="BH41" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK41" t="n">
         <v>9</v>
-      </c>
-      <c r="BJ41" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK41" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -9082,7 +9082,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>2447594</v>
+        <v>2447590</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -9102,140 +9102,140 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>['31', '53', '89']</t>
+          <t>['13', '30']</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>['26', '85']</t>
+          <t>['22', '67']</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC43" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AE43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI43" t="n">
         <v>3.3</v>
       </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1.65</v>
       </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ43" t="n">
-        <v>0.67</v>
+        <v>3</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS43" t="n">
         <v>1.13</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.4</v>
+        <v>0.93</v>
       </c>
       <c r="AU43" t="n">
-        <v>0.95</v>
+        <v>1.89</v>
       </c>
       <c r="AV43" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="AW43" t="n">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="BB43" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BC43" t="n">
         <v>0</v>
@@ -9262,22 +9262,22 @@
         <v>0</v>
       </c>
       <c r="BF43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BG43" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH43" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BI43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ43" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="BK43" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -9285,7 +9285,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>2447590</v>
+        <v>2447594</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -9305,140 +9305,140 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>['13', '30']</t>
+          <t>['31', '53', '89']</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>['22', '67']</t>
+          <t>['26', '85']</t>
         </is>
       </c>
       <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
         <v>6</v>
       </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>7</v>
-      </c>
       <c r="T44" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
         <v>2.05</v>
       </c>
-      <c r="V44" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="W44" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X44" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>2.03</v>
-      </c>
       <c r="AD44" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AE44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AI44" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK44" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AL44" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AO44" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AQ44" t="n">
-        <v>3</v>
+        <v>0.67</v>
       </c>
       <c r="AR44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="n">
         <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.93</v>
+        <v>0.4</v>
       </c>
       <c r="AU44" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="AV44" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="AW44" t="n">
-        <v>3.32</v>
+        <v>2.16</v>
       </c>
       <c r="AX44" t="n">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="BB44" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BC44" t="n">
         <v>0</v>
@@ -9465,22 +9465,22 @@
         <v>0</v>
       </c>
       <c r="BF44" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK44" t="n">
         <v>9</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI44" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>21</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT47" t="n">
         <v>0.87</v>
@@ -10444,7 +10444,7 @@
         <v>2.2</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -10850,7 +10850,7 @@
         <v>1.87</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.68</v>
@@ -11253,7 +11253,7 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>0.67</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT59" t="n">
         <v>1.8</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU64" t="n">
         <v>1.35</v>
@@ -13548,7 +13548,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>2447614</v>
+        <v>2447612</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -13568,65 +13568,65 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42', '65', '73', '90+5']</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>['24']</t>
+          <t>['34']</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T65" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V65" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="W65" t="n">
         <v>1.38</v>
       </c>
       <c r="X65" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Y65" t="n">
         <v>2.7</v>
@@ -13641,13 +13641,13 @@
         <v>1.09</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="AD65" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AE65" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="AF65" t="n">
         <v>1.06</v>
@@ -13668,40 +13668,40 @@
         <v>1.86</v>
       </c>
       <c r="AL65" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AM65" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AN65" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="AO65" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR65" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>1.56</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="AU65" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AV65" t="n">
-        <v>0.97</v>
+        <v>1.21</v>
       </c>
       <c r="AW65" t="n">
-        <v>2.24</v>
+        <v>2.65</v>
       </c>
       <c r="AX65" t="n">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="BB65" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BC65" t="n">
         <v>0</v>
@@ -13728,22 +13728,22 @@
         <v>0</v>
       </c>
       <c r="BF65" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG65" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BH65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BI65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ65" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BK65" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -13751,7 +13751,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>2447612</v>
+        <v>2447614</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -13771,65 +13771,65 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>['42', '65', '73', '90+5']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>['34']</t>
+          <t>['24']</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T66" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U66" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V66" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="W66" t="n">
         <v>1.38</v>
       </c>
       <c r="X66" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Y66" t="n">
         <v>2.7</v>
@@ -13844,13 +13844,13 @@
         <v>1.09</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.68</v>
+        <v>1.99</v>
       </c>
       <c r="AD66" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AE66" t="n">
-        <v>4.2</v>
+        <v>3.15</v>
       </c>
       <c r="AF66" t="n">
         <v>1.06</v>
@@ -13871,40 +13871,40 @@
         <v>1.86</v>
       </c>
       <c r="AL66" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AM66" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AN66" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="AO66" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR66" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.47</v>
+        <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AV66" t="n">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="AW66" t="n">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
       <c r="AX66" t="n">
         <v>0</v>
@@ -13919,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="BB66" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="BC66" t="n">
         <v>0</v>
@@ -13931,22 +13931,22 @@
         <v>0</v>
       </c>
       <c r="BF66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG66" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BH66" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BI66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ66" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="BK66" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -14098,7 +14098,7 @@
         <v>1.87</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14504,7 +14504,7 @@
         <v>2.33</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14704,10 +14704,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU70" t="n">
         <v>1.77</v>
@@ -14969,7 +14969,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>2447626</v>
+        <v>2447623</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -14989,182 +14989,182 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N72" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>['61', '90+3']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>['69']</t>
+          <t>['2', '18', '32', '38', '52']</t>
         </is>
       </c>
       <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7</v>
+      </c>
+      <c r="T72" t="n">
+        <v>8</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA72" t="n">
         <v>6</v>
       </c>
-      <c r="R72" t="n">
-        <v>8</v>
-      </c>
-      <c r="S72" t="n">
+      <c r="AB72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK72" t="n">
         <v>14</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V72" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W72" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X72" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Y72" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Z72" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AQ72" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS72" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT72" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AX72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF72" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG72" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH72" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI72" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ72" t="n">
-        <v>14</v>
-      </c>
-      <c r="BK72" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="73">
@@ -15172,7 +15172,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>2447623</v>
+        <v>2447626</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -15192,182 +15192,182 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['61', '90+3']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>8</v>
+      </c>
+      <c r="S73" t="n">
+        <v>14</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI73" t="n">
         <v>5</v>
       </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="n">
-        <v>5</v>
-      </c>
-      <c r="N73" t="n">
-        <v>6</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>['8']</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>['2', '18', '32', '38', '52']</t>
-        </is>
-      </c>
-      <c r="Q73" t="n">
-        <v>4</v>
-      </c>
-      <c r="R73" t="n">
-        <v>3</v>
-      </c>
-      <c r="S73" t="n">
-        <v>7</v>
-      </c>
-      <c r="T73" t="n">
-        <v>8</v>
-      </c>
-      <c r="U73" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V73" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X73" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z73" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA73" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB73" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="AD73" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AP73" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS73" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AT73" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB73" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BC73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF73" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG73" t="n">
-        <v>11</v>
-      </c>
-      <c r="BH73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI73" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ73" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK73" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -16187,7 +16187,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>2447631</v>
+        <v>2447633</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -16207,12 +16207,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -16225,164 +16225,164 @@
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
         <v>4</v>
       </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>['23', '64', '71']</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>['88']</t>
-        </is>
-      </c>
-      <c r="Q78" t="n">
+      <c r="W78" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
         <v>8</v>
       </c>
-      <c r="R78" t="n">
-        <v>7</v>
-      </c>
-      <c r="S78" t="n">
-        <v>15</v>
-      </c>
-      <c r="T78" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U78" t="n">
+      <c r="AH78" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>2.3</v>
       </c>
-      <c r="V78" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="W78" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X78" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Y78" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z78" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB78" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC78" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD78" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF78" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG78" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH78" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AI78" t="n">
+      <c r="AK78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF78" t="n">
         <v>4</v>
       </c>
-      <c r="AJ78" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AL78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AM78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN78" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AO78" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AP78" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AQ78" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AR78" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS78" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT78" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF78" t="n">
+      <c r="BG78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ78" t="n">
         <v>9</v>
       </c>
-      <c r="BG78" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH78" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI78" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ78" t="n">
-        <v>19</v>
-      </c>
       <c r="BK78" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79">
@@ -16390,7 +16390,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>2447633</v>
+        <v>2447631</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -16410,12 +16410,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -16428,164 +16428,164 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['23', '64', '71']</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['88']</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S79" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="T79" t="n">
-        <v>2.88</v>
+        <v>2.05</v>
       </c>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V79" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI79" t="n">
         <v>4</v>
       </c>
-      <c r="W79" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X79" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AF79" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG79" t="n">
+      <c r="AJ79" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG79" t="n">
         <v>8</v>
       </c>
-      <c r="AH79" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AI79" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL79" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM79" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN79" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO79" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP79" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AR79" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AX79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF79" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG79" t="n">
+      <c r="BH79" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI79" t="n">
         <v>5</v>
       </c>
-      <c r="BH79" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI79" t="n">
-        <v>6</v>
-      </c>
       <c r="BJ79" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="BK79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -16737,7 +16737,7 @@
         <v>0.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>0.96</v>
@@ -17346,7 +17346,7 @@
         <v>1.73</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT85" t="n">
         <v>0.87</v>
@@ -17955,7 +17955,7 @@
         <v>1.4</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU86" t="n">
         <v>1.33</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT88" t="n">
         <v>1.8</v>
@@ -18420,7 +18420,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>2447637</v>
+        <v>2447641</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -18440,35 +18440,35 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['24', '81']</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -18477,145 +18477,145 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="R89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T89" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="U89" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="V89" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ89" t="n">
         <v>13</v>
       </c>
-      <c r="W89" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X89" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Z89" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AA89" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AB89" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD89" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="AF89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG89" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH89" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AI89" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AJ89" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL89" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF89" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG89" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH89" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI89" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ89" t="n">
-        <v>16</v>
-      </c>
       <c r="BK89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -18623,7 +18623,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>2447641</v>
+        <v>2447637</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -18643,35 +18643,35 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>['24', '81']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
@@ -18680,145 +18680,145 @@
         </is>
       </c>
       <c r="Q90" t="n">
+        <v>15</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>15</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>13</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X90" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>12.71</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK90" t="n">
         <v>7</v>
-      </c>
-      <c r="R90" t="n">
-        <v>3</v>
-      </c>
-      <c r="S90" t="n">
-        <v>10</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U90" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V90" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="W90" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X90" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AV90" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AW90" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="AX90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="BC90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF90" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG90" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH90" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI90" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ90" t="n">
-        <v>13</v>
-      </c>
-      <c r="BK90" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT92" t="n">
         <v>1.33</v>
@@ -19373,10 +19373,10 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -19579,7 +19579,7 @@
         <v>2</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.67</v>
@@ -20391,7 +20391,7 @@
         <v>1.13</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -21606,10 +21606,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22218,7 +22218,7 @@
         <v>2.73</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22418,7 +22418,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT108" t="n">
         <v>2.07</v>
@@ -22621,10 +22621,10 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -22827,7 +22827,7 @@
         <v>0.6</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>0.4</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>2.73</v>
@@ -26075,7 +26075,7 @@
         <v>1.13</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26275,7 +26275,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT127" t="n">
         <v>1.4</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>0.67</v>
@@ -27090,7 +27090,7 @@
         <v>2.2</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27293,7 +27293,7 @@
         <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT133" t="n">
         <v>2.73</v>
@@ -27699,7 +27699,7 @@
         <v>1.13</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>1.8</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
         <v>0.67</v>
@@ -29323,7 +29323,7 @@
         <v>2.73</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29729,7 +29729,7 @@
         <v>1.73</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -30744,7 +30744,7 @@
         <v>2.2</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -31353,7 +31353,7 @@
         <v>2.33</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31553,10 +31553,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -31756,7 +31756,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT154" t="n">
         <v>0.4</v>
@@ -32162,10 +32162,10 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32771,7 +32771,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT159" t="n">
         <v>2.07</v>
@@ -33383,7 +33383,7 @@
         <v>1.13</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33586,7 +33586,7 @@
         <v>2.33</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33645,7 +33645,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>2447712</v>
+        <v>2447708</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -33665,182 +33665,182 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['21', '28']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
         <v>6</v>
       </c>
-      <c r="N164" t="n">
-        <v>6</v>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>['15', '19', '24', '64', '77', '82']</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
-        <v>1</v>
-      </c>
       <c r="R164" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S164" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF164" t="n">
         <v>8</v>
       </c>
-      <c r="U164" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="V164" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W164" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="X164" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Y164" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z164" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG164" t="n">
+      <c r="BG164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ164" t="n">
         <v>11</v>
       </c>
-      <c r="AH164" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM164" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AP164" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AQ164" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR164" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AS164" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AT164" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AU164" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AV164" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AW164" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AX164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY164" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF164" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG164" t="n">
-        <v>14</v>
-      </c>
-      <c r="BH164" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI164" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ164" t="n">
-        <v>2</v>
-      </c>
       <c r="BK164" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165">
@@ -33848,7 +33848,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>2447708</v>
+        <v>2447712</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -33868,182 +33868,182 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K165" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N165" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>['21', '28']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['15', '19', '24', '64', '77', '82']</t>
         </is>
       </c>
       <c r="Q165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R165" t="n">
+        <v>12</v>
+      </c>
+      <c r="S165" t="n">
+        <v>13</v>
+      </c>
+      <c r="T165" t="n">
         <v>8</v>
       </c>
-      <c r="S165" t="n">
+      <c r="U165" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V165" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X165" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG165" t="n">
         <v>14</v>
       </c>
-      <c r="T165" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="U165" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V165" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="W165" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X165" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA165" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB165" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC165" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD165" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AE165" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AF165" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG165" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH165" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AI165" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AJ165" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AK165" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL165" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AM165" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AN165" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AO165" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AP165" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AQ165" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR165" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS165" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT165" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AU165" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AV165" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AW165" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="AX165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY165" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE165" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF165" t="n">
-        <v>8</v>
-      </c>
-      <c r="BG165" t="n">
-        <v>2</v>
-      </c>
       <c r="BH165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI165" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BJ165" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BK165" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166">
@@ -34398,7 +34398,7 @@
         <v>1.73</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU167" t="n">
         <v>2.21</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT171" t="n">
         <v>1.13</v>
@@ -35410,7 +35410,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>0.4</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT174" t="n">
         <v>1.33</v>
@@ -36628,7 +36628,7 @@
         <v>0.82</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT178" t="n">
         <v>0.87</v>
@@ -36831,10 +36831,10 @@
         <v>0.27</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37646,7 +37646,7 @@
         <v>1.87</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -37849,7 +37849,7 @@
         <v>2</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU184" t="n">
         <v>1.69</v>
@@ -38052,7 +38052,7 @@
         <v>1.73</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38252,7 +38252,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT186" t="n">
         <v>1.4</v>
@@ -39470,7 +39470,7 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT192" t="n">
         <v>0.93</v>
@@ -40079,10 +40079,10 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,7 +40282,7 @@
         <v>1.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT196" t="n">
         <v>1.4</v>
@@ -40488,7 +40488,7 @@
         <v>2</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -40691,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -41909,7 +41909,7 @@
         <v>1.13</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU204" t="n">
         <v>1.65</v>
@@ -42312,7 +42312,7 @@
         <v>1.17</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT206" t="n">
         <v>1.13</v>
@@ -42921,7 +42921,7 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT209" t="n">
         <v>2.27</v>
@@ -43330,7 +43330,7 @@
         <v>0.6</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU211" t="n">
         <v>1.29</v>
@@ -43939,7 +43939,7 @@
         <v>1.87</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU214" t="n">
         <v>1.88</v>
@@ -44342,7 +44342,7 @@
         <v>2.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>2.73</v>
@@ -44748,7 +44748,7 @@
         <v>0.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT218" t="n">
         <v>0.67</v>
@@ -45157,7 +45157,7 @@
         <v>1.4</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU220" t="n">
         <v>1.44</v>
@@ -45357,7 +45357,7 @@
         <v>0.85</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT221" t="n">
         <v>0.93</v>
@@ -45563,7 +45563,7 @@
         <v>2.73</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU222" t="n">
         <v>2.44</v>
@@ -46169,7 +46169,7 @@
         <v>1.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT225" t="n">
         <v>1.8</v>
@@ -46372,10 +46372,10 @@
         <v>0.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -47449,7 +47449,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>2447776</v>
+        <v>2447778</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -47469,71 +47469,71 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
       <c r="M232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>['17']</t>
+          <t>['54']</t>
         </is>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>['90']</t>
+          <t>['47', '60']</t>
         </is>
       </c>
       <c r="Q232" t="n">
         <v>3</v>
       </c>
       <c r="R232" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S232" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T232" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="U232" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V232" t="n">
-        <v>4</v>
+        <v>2.45</v>
       </c>
       <c r="W232" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="X232" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="Y232" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z232" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA232" t="n">
         <v>8</v>
@@ -47542,109 +47542,109 @@
         <v>1.08</v>
       </c>
       <c r="AC232" t="n">
-        <v>1.94</v>
+        <v>3.85</v>
       </c>
       <c r="AD232" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AE232" t="n">
-        <v>3.7</v>
+        <v>1.88</v>
       </c>
       <c r="AF232" t="n">
         <v>1.03</v>
       </c>
       <c r="AG232" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI232" t="n">
         <v>10</v>
       </c>
-      <c r="AH232" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI232" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="AJ232" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AK232" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AL232" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM232" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN232" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO232" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP232" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ232" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AR232" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS232" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AT232" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AU232" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AV232" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AW232" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AX232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY232" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE232" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF232" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG232" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH232" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI232" t="n">
+      <c r="BJ232" t="n">
         <v>8</v>
       </c>
-      <c r="BJ232" t="n">
-        <v>6</v>
-      </c>
       <c r="BK232" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233">
@@ -47652,7 +47652,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>2447778</v>
+        <v>2447776</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -47672,71 +47672,71 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
       <c r="M233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>['54']</t>
+          <t>['17']</t>
         </is>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>['47', '60']</t>
+          <t>['90']</t>
         </is>
       </c>
       <c r="Q233" t="n">
         <v>3</v>
       </c>
       <c r="R233" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S233" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T233" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="U233" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V233" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="W233" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z233" t="n">
         <v>1.4</v>
-      </c>
-      <c r="X233" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y233" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z233" t="n">
-        <v>1.36</v>
       </c>
       <c r="AA233" t="n">
         <v>8</v>
@@ -47745,67 +47745,67 @@
         <v>1.08</v>
       </c>
       <c r="AC233" t="n">
-        <v>3.85</v>
+        <v>1.94</v>
       </c>
       <c r="AD233" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AE233" t="n">
-        <v>1.88</v>
+        <v>3.7</v>
       </c>
       <c r="AF233" t="n">
         <v>1.03</v>
       </c>
       <c r="AG233" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH233" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AI233" t="n">
-        <v>3.4</v>
+        <v>3.74</v>
       </c>
       <c r="AJ233" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ233" t="n">
         <v>1.93</v>
       </c>
-      <c r="AK233" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AL233" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AM233" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AN233" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AO233" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP233" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AQ233" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AR233" t="n">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AS233" t="n">
-        <v>1</v>
+        <v>1.87</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AU233" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="AV233" t="n">
-        <v>1.66</v>
+        <v>1.31</v>
       </c>
       <c r="AW233" t="n">
-        <v>3.02</v>
+        <v>3.2</v>
       </c>
       <c r="AX233" t="n">
         <v>0</v>
@@ -47832,22 +47832,22 @@
         <v>0</v>
       </c>
       <c r="BF233" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI233" t="n">
         <v>8</v>
       </c>
-      <c r="BH233" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI233" t="n">
+      <c r="BJ233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK233" t="n">
         <v>10</v>
-      </c>
-      <c r="BJ233" t="n">
-        <v>8</v>
-      </c>
-      <c r="BK233" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="234">
@@ -47999,7 +47999,7 @@
         <v>1.13</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AU234" t="n">
         <v>1.1</v>
@@ -48202,7 +48202,7 @@
         <v>2.73</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AU235" t="n">
         <v>2.49</v>
@@ -48402,10 +48402,10 @@
         <v>0.57</v>
       </c>
       <c r="AS236" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AT236" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU236" t="n">
         <v>1.23</v>
@@ -48808,7 +48808,7 @@
         <v>2.21</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT238" t="n">
         <v>2.27</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AT239" t="n">
         <v>0.93</v>
@@ -49472,6 +49472,818 @@
       </c>
       <c r="BK241" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5893356</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45037.5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>3</v>
+      </c>
+      <c r="R242" t="n">
+        <v>9</v>
+      </c>
+      <c r="S242" t="n">
+        <v>12</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V242" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X242" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>5922615</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45037.58333333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>3</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>['20', '84']</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>4</v>
+      </c>
+      <c r="R243" t="n">
+        <v>4</v>
+      </c>
+      <c r="S243" t="n">
+        <v>8</v>
+      </c>
+      <c r="T243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>5893354</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45037.58333333334</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>3</v>
+      </c>
+      <c r="R244" t="n">
+        <v>8</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5893353</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>4</v>
+      </c>
+      <c r="R245" t="n">
+        <v>5</v>
+      </c>
+      <c r="S245" t="n">
+        <v>9</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK245"/>
+  <dimension ref="A1:BK248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.56</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.33</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT6" t="n">
         <v>0.87</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT8" t="n">
         <v>0.67</v>
@@ -2933,7 +2933,7 @@
         <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT13" t="n">
         <v>0.67</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.73</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -7399,7 +7399,7 @@
         <v>1.87</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU34" t="n">
         <v>1.75</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8617,7 +8617,7 @@
         <v>1.5</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU40" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT42" t="n">
         <v>1.13</v>
@@ -9429,7 +9429,7 @@
         <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU44" t="n">
         <v>0.95</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5600000000000001</v>
@@ -11662,7 +11662,7 @@
         <v>0.6</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU55" t="n">
         <v>0.8</v>
@@ -12068,7 +12068,7 @@
         <v>1.13</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT60" t="n">
         <v>0.93</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT63" t="n">
         <v>0.87</v>
@@ -13692,7 +13692,7 @@
         <v>1.56</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT73" t="n">
         <v>1.13</v>
@@ -15516,10 +15516,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -18158,7 +18158,7 @@
         <v>1.13</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT89" t="n">
         <v>0.93</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT90" t="n">
         <v>0.67</v>
@@ -19173,7 +19173,7 @@
         <v>1.69</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.38</v>
@@ -19782,7 +19782,7 @@
         <v>1.87</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -21203,7 +21203,7 @@
         <v>1.13</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU102" t="n">
         <v>1.21</v>
@@ -21809,10 +21809,10 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22215,7 +22215,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT107" t="n">
         <v>0.5</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24651,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT119" t="n">
         <v>2.73</v>
@@ -25872,7 +25872,7 @@
         <v>0.6</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26684,7 +26684,7 @@
         <v>2.33</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU129" t="n">
         <v>1.79</v>
@@ -27087,7 +27087,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT131" t="n">
         <v>0.88</v>
@@ -28714,7 +28714,7 @@
         <v>1.4</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -29320,7 +29320,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT142" t="n">
         <v>0.5600000000000001</v>
@@ -30741,7 +30741,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -31150,7 +31150,7 @@
         <v>1.73</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU151" t="n">
         <v>2.19</v>
@@ -31759,7 +31759,7 @@
         <v>1.69</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT157" t="n">
         <v>1.4</v>
@@ -32977,7 +32977,7 @@
         <v>2</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -34192,7 +34192,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35613,7 +35613,7 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT173" t="n">
         <v>1.8</v>
@@ -35819,7 +35819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -36225,7 +36225,7 @@
         <v>0.6</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -37034,10 +37034,10 @@
         <v>0.18</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -38864,7 +38864,7 @@
         <v>1.13</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39270,7 +39270,7 @@
         <v>1.4</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU191" t="n">
         <v>1.49</v>
@@ -39673,7 +39673,7 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT193" t="n">
         <v>2.07</v>
@@ -39879,7 +39879,7 @@
         <v>2.33</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -41703,7 +41703,7 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT203" t="n">
         <v>1.8</v>
@@ -41968,7 +41968,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>2447749</v>
+        <v>2447747</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -41988,53 +41988,53 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M205" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N205" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['62', '84']</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['11', '64', '73']</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R205" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S205" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T205" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="U205" t="n">
         <v>1.91</v>
@@ -42043,85 +42043,85 @@
         <v>4.33</v>
       </c>
       <c r="W205" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="X205" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="Y205" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="Z205" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AA205" t="n">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AB205" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC205" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="AD205" t="n">
         <v>3.05</v>
       </c>
       <c r="AE205" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="AF205" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="AG205" t="n">
-        <v>7.55</v>
+        <v>9.1</v>
       </c>
       <c r="AH205" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AI205" t="n">
-        <v>2.64</v>
+        <v>3.05</v>
       </c>
       <c r="AJ205" t="n">
-        <v>2.3</v>
+        <v>2.33</v>
       </c>
       <c r="AK205" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AL205" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="AM205" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="AN205" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AO205" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AP205" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AQ205" t="n">
         <v>1.08</v>
       </c>
       <c r="AR205" t="n">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AS205" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT205" t="n">
         <v>1.13</v>
       </c>
-      <c r="AT205" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AU205" t="n">
-        <v>1.26</v>
+        <v>1.71</v>
       </c>
       <c r="AV205" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AW205" t="n">
-        <v>2.55</v>
+        <v>2.87</v>
       </c>
       <c r="AX205" t="n">
         <v>0</v>
@@ -42136,10 +42136,10 @@
         <v>0</v>
       </c>
       <c r="BB205" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BC205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD205" t="n">
         <v>0</v>
@@ -42148,22 +42148,22 @@
         <v>0</v>
       </c>
       <c r="BF205" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BG205" t="n">
         <v>5</v>
       </c>
       <c r="BH205" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI205" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ205" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BK205" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -42171,7 +42171,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>2447747</v>
+        <v>2447749</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -42191,53 +42191,53 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M206" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N206" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>['62', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>['11', '64', '73']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="R206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S206" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="T206" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="U206" t="n">
         <v>1.91</v>
@@ -42246,85 +42246,85 @@
         <v>4.33</v>
       </c>
       <c r="W206" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="X206" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="Y206" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="Z206" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AA206" t="n">
-        <v>7.25</v>
+        <v>8</v>
       </c>
       <c r="AB206" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC206" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AD206" t="n">
         <v>3.05</v>
       </c>
       <c r="AE206" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AF206" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="AG206" t="n">
-        <v>9.1</v>
+        <v>7.55</v>
       </c>
       <c r="AH206" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AI206" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="AJ206" t="n">
-        <v>2.33</v>
+        <v>2.3</v>
       </c>
       <c r="AK206" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AL206" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AM206" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="AN206" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AO206" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AP206" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.08</v>
       </c>
       <c r="AR206" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AU206" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="AV206" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AW206" t="n">
-        <v>2.87</v>
+        <v>2.55</v>
       </c>
       <c r="AX206" t="n">
         <v>0</v>
@@ -42339,10 +42339,10 @@
         <v>0</v>
       </c>
       <c r="BB206" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BC206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD206" t="n">
         <v>0</v>
@@ -42351,22 +42351,22 @@
         <v>0</v>
       </c>
       <c r="BF206" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BG206" t="n">
         <v>5</v>
       </c>
       <c r="BH206" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BI206" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ206" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BK206" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -42515,10 +42515,10 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU207" t="n">
         <v>2.44</v>
@@ -42924,7 +42924,7 @@
         <v>1.69</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU209" t="n">
         <v>1.31</v>
@@ -43127,7 +43127,7 @@
         <v>1.73</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU210" t="n">
         <v>2</v>
@@ -44954,7 +44954,7 @@
         <v>1.13</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU219" t="n">
         <v>1.09</v>
@@ -45560,7 +45560,7 @@
         <v>0.77</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AT222" t="n">
         <v>0.88</v>
@@ -45763,7 +45763,7 @@
         <v>2.38</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT223" t="n">
         <v>2.07</v>
@@ -45969,7 +45969,7 @@
         <v>1.13</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU224" t="n">
         <v>1.29</v>
@@ -47187,7 +47187,7 @@
         <v>2</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AU230" t="n">
         <v>1.74</v>
@@ -48058,7 +48058,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>2447786</v>
+        <v>2447785</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -48078,182 +48078,182 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Spartak Subotica</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>2</v>
       </c>
       <c r="M235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>['6', '78']</t>
+          <t>['58', '73']</t>
         </is>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['48']</t>
         </is>
       </c>
       <c r="Q235" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R235" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S235" t="n">
         <v>9</v>
       </c>
       <c r="T235" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="U235" t="n">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="V235" t="n">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="W235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV235" t="n">
         <v>1.22</v>
       </c>
-      <c r="X235" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Y235" t="n">
+      <c r="AW235" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ235" t="n">
         <v>2.05</v>
       </c>
-      <c r="Z235" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AA235" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AB235" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC235" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AD235" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE235" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF235" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AG235" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH235" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AI235" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ235" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AK235" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AL235" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AM235" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AN235" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AO235" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AP235" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ235" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AR235" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AS235" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AT235" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU235" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AV235" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW235" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AX235" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AY235" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ235" t="n">
-        <v>21</v>
-      </c>
       <c r="BA235" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="BB235" t="n">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="BC235" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="BD235" t="n">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="BE235" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="BF235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH235" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BI235" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ235" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BK235" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
@@ -48261,7 +48261,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>2447785</v>
+        <v>2447786</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -48281,182 +48281,182 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Spartak Subotica</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="n">
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236" t="n">
         <v>2</v>
       </c>
       <c r="M236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>['58', '73']</t>
+          <t>['6', '78']</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>['48']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q236" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R236" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S236" t="n">
         <v>9</v>
       </c>
       <c r="T236" t="n">
-        <v>3.1</v>
+        <v>1.39</v>
       </c>
       <c r="U236" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="V236" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="W236" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="X236" t="n">
-        <v>2.5</v>
+        <v>3.85</v>
       </c>
       <c r="Y236" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Z236" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV236" t="n">
         <v>1.3</v>
       </c>
-      <c r="AA236" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB236" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC236" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AD236" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE236" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AF236" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG236" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AH236" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AI236" t="n">
+      <c r="AW236" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE236" t="n">
         <v>2.9</v>
       </c>
-      <c r="AJ236" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AK236" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL236" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AM236" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AN236" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO236" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP236" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AQ236" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR236" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AS236" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT236" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AU236" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AV236" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AW236" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AX236" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="AY236" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ236" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BA236" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BB236" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="BC236" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="BD236" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="BE236" t="n">
-        <v>4.3</v>
-      </c>
       <c r="BF236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH236" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BI236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ236" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BK236" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -48605,10 +48605,10 @@
         <v>1.43</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU237" t="n">
         <v>1.65</v>
@@ -48811,7 +48811,7 @@
         <v>1.56</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="AU238" t="n">
         <v>1.41</v>
@@ -49682,7 +49682,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>5922615</v>
+        <v>5893354</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -49702,182 +49702,182 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="n">
         <v>1</v>
       </c>
       <c r="L243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>['20', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>8</v>
+      </c>
+      <c r="S243" t="n">
+        <v>11</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
         <v>4</v>
       </c>
-      <c r="R243" t="n">
-        <v>4</v>
-      </c>
-      <c r="S243" t="n">
-        <v>8</v>
-      </c>
-      <c r="T243" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U243" t="n">
-        <v>2</v>
-      </c>
-      <c r="V243" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W243" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X243" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y243" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA243" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB243" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC243" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE243" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF243" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG243" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI243" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ243" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK243" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL243" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM243" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO243" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP243" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ243" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AR243" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS243" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AT243" t="n">
-        <v>1</v>
-      </c>
-      <c r="AU243" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AV243" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW243" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AX243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB243" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BC243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF243" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG243" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH243" t="n">
-        <v>7</v>
-      </c>
       <c r="BI243" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ243" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK243" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
@@ -49885,7 +49885,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>5893354</v>
+        <v>5922615</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -49905,156 +49905,156 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
         <v>1</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
       <c r="N244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '84']</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R244" t="n">
+        <v>4</v>
+      </c>
+      <c r="S244" t="n">
         <v>8</v>
       </c>
-      <c r="S244" t="n">
-        <v>11</v>
-      </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V244" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W244" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X244" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Y244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA244" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB244" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC244" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AD244" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE244" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG244" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ244" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK244" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AL244" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM244" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO244" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP244" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
         <v>1.8</v>
       </c>
-      <c r="AR244" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS244" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT244" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU244" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AV244" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AW244" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AX244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB244" t="n">
-        <v>0</v>
-      </c>
       <c r="BC244" t="n">
         <v>0</v>
       </c>
@@ -50065,22 +50065,22 @@
         <v>0</v>
       </c>
       <c r="BF244" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG244" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI244" t="n">
         <v>4</v>
       </c>
-      <c r="BI244" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ244" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK244" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -50268,22 +50268,631 @@
         <v>0</v>
       </c>
       <c r="BF245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI245" t="n">
         <v>5</v>
       </c>
-      <c r="BG245" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH245" t="n">
+      <c r="BJ245" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK245" t="n">
         <v>5</v>
       </c>
-      <c r="BI245" t="n">
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>5922616</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45038.45833333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>2</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>2</v>
+      </c>
+      <c r="L246" t="n">
+        <v>4</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>4</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>['17', '24', '61', '80']</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>4</v>
+      </c>
+      <c r="R246" t="n">
+        <v>2</v>
+      </c>
+      <c r="S246" t="n">
+        <v>6</v>
+      </c>
+      <c r="T246" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V246" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X246" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5922617</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45038.54166666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2</v>
+      </c>
+      <c r="L247" t="n">
+        <v>4</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
+        <v>5</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['45+2', '61', '69', '75']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>9</v>
+      </c>
+      <c r="R247" t="n">
+        <v>2</v>
+      </c>
+      <c r="S247" t="n">
+        <v>11</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V247" t="n">
+        <v>12</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X247" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA247" t="n">
         <v>7</v>
       </c>
-      <c r="BJ245" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK245" t="n">
+      <c r="AB247" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH247" t="n">
         <v>9</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>5893355</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45039.47916666666</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>3</v>
+      </c>
+      <c r="R248" t="n">
+        <v>2</v>
+      </c>
+      <c r="S248" t="n">
+        <v>5</v>
+      </c>
+      <c r="T248" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK248"/>
+  <dimension ref="A1:BK250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT4" t="n">
         <v>2.13</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU13" t="n">
         <v>2.22</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT15" t="n">
         <v>1.4</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT21" t="n">
         <v>0.67</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT31" t="n">
         <v>1.8</v>
@@ -7805,7 +7805,7 @@
         <v>1.13</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU36" t="n">
         <v>0.95</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -9629,10 +9629,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT55" t="n">
         <v>1.25</v>
@@ -12880,7 +12880,7 @@
         <v>1.4</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU66" t="n">
         <v>1.27</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5600000000000001</v>
@@ -15113,7 +15113,7 @@
         <v>1.69</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -16534,7 +16534,7 @@
         <v>1.87</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>2.01</v>
@@ -16734,7 +16734,7 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT80" t="n">
         <v>0.5</v>
@@ -17140,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT82" t="n">
         <v>1.4</v>
@@ -18970,7 +18970,7 @@
         <v>1.13</v>
       </c>
       <c r="AT91" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -20188,7 +20188,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT99" t="n">
         <v>2.73</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT101" t="n">
         <v>0.87</v>
@@ -22012,7 +22012,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT106" t="n">
         <v>0.93</v>
@@ -22421,7 +22421,7 @@
         <v>1.56</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22824,7 +22824,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT110" t="n">
         <v>0.5600000000000001</v>
@@ -23436,7 +23436,7 @@
         <v>1.13</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -25060,7 +25060,7 @@
         <v>1.4</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU121" t="n">
         <v>1.35</v>
@@ -25869,7 +25869,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT125" t="n">
         <v>0.44</v>
@@ -26681,7 +26681,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT129" t="n">
         <v>1.25</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT136" t="n">
         <v>1.13</v>
@@ -28917,7 +28917,7 @@
         <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29526,7 +29526,7 @@
         <v>1.87</v>
       </c>
       <c r="AT143" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -29929,7 +29929,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT145" t="n">
         <v>2.73</v>
@@ -30338,7 +30338,7 @@
         <v>1.13</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU147" t="n">
         <v>1.07</v>
@@ -31350,7 +31350,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT152" t="n">
         <v>0.88</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -33177,7 +33177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT161" t="n">
         <v>0.93</v>
@@ -33583,7 +33583,7 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT163" t="n">
         <v>1</v>
@@ -34195,7 +34195,7 @@
         <v>2.25</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -36222,7 +36222,7 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT176" t="n">
         <v>2.13</v>
@@ -36428,7 +36428,7 @@
         <v>1.13</v>
       </c>
       <c r="AT177" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -37237,10 +37237,10 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU181" t="n">
         <v>1.62</v>
@@ -38658,7 +38658,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT188" t="n">
         <v>0.67</v>
@@ -39676,7 +39676,7 @@
         <v>2.75</v>
       </c>
       <c r="AT193" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU193" t="n">
         <v>2.57</v>
@@ -39876,7 +39876,7 @@
         <v>0.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT194" t="n">
         <v>0.44</v>
@@ -40891,7 +40891,7 @@
         <v>0.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT199" t="n">
         <v>0.87</v>
@@ -41300,7 +41300,7 @@
         <v>1.73</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU201" t="n">
         <v>2.07</v>
@@ -42721,7 +42721,7 @@
         <v>1.13</v>
       </c>
       <c r="AT208" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU208" t="n">
         <v>1.12</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT211" t="n">
         <v>1</v>
@@ -43533,7 +43533,7 @@
         <v>2</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -44545,7 +44545,7 @@
         <v>1.31</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT217" t="n">
         <v>1.13</v>
@@ -45766,7 +45766,7 @@
         <v>2.25</v>
       </c>
       <c r="AT223" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU223" t="n">
         <v>1.71</v>
@@ -46981,10 +46981,10 @@
         <v>0.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AU229" t="n">
         <v>1.32</v>
@@ -49417,10 +49417,10 @@
         <v>2.21</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT241" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -50674,10 +50674,10 @@
         <v>0</v>
       </c>
       <c r="BF247" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH247" t="n">
         <v>9</v>
@@ -50686,10 +50686,10 @@
         <v>3</v>
       </c>
       <c r="BJ247" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK247" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
@@ -50754,13 +50754,13 @@
         </is>
       </c>
       <c r="Q248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R248" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S248" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T248" t="n">
         <v>3.02</v>
@@ -50877,22 +50877,428 @@
         <v>0</v>
       </c>
       <c r="BF248" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH248" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI248" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5947164</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>1</v>
+      </c>
+      <c r="S249" t="n">
+        <v>1</v>
+      </c>
+      <c r="T249" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V249" t="n">
+        <v>3</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>5893357</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45041.54166666666</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>1</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="n">
+        <v>1</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V250" t="n">
+        <v>7</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ250" t="n">
         <v>6</v>
       </c>
-      <c r="BJ248" t="n">
-        <v>5</v>
-      </c>
-      <c r="BK248" t="n">
-        <v>6</v>
+      <c r="BK250" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK250"/>
+  <dimension ref="A1:BK254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT3" t="n">
         <v>0.5</v>
@@ -2121,7 +2121,7 @@
         <v>2.25</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT11" t="n">
         <v>1.8</v>
@@ -3542,7 +3542,7 @@
         <v>0.75</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT16" t="n">
         <v>0.5600000000000001</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT20" t="n">
         <v>2.13</v>
@@ -4760,7 +4760,7 @@
         <v>2.38</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.81</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT25" t="n">
         <v>1.94</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6384,7 +6384,7 @@
         <v>1.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT35" t="n">
         <v>0.87</v>
@@ -8820,7 +8820,7 @@
         <v>1.69</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -9023,7 +9023,7 @@
         <v>2.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT44" t="n">
         <v>0.44</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT46" t="n">
         <v>1.8</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -11459,7 +11459,7 @@
         <v>1.13</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12268,10 +12268,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT61" t="n">
         <v>1.94</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -14910,7 +14910,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU71" t="n">
         <v>1.87</v>
@@ -15316,7 +15316,7 @@
         <v>2.25</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -15719,7 +15719,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT75" t="n">
         <v>1.25</v>
@@ -15922,7 +15922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT76" t="n">
         <v>0.93</v>
@@ -16937,10 +16937,10 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.49</v>
@@ -17143,7 +17143,7 @@
         <v>2.38</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT83" t="n">
         <v>0.5600000000000001</v>
@@ -17952,7 +17952,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT86" t="n">
         <v>0.88</v>
@@ -18155,7 +18155,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT87" t="n">
         <v>2.13</v>
@@ -18767,7 +18767,7 @@
         <v>2.75</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU90" t="n">
         <v>2.78</v>
@@ -19576,7 +19576,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5600000000000001</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20594,7 +20594,7 @@
         <v>0.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU99" t="n">
         <v>1.07</v>
@@ -20794,10 +20794,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21403,10 +21403,10 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU103" t="n">
         <v>1.11</v>
@@ -23027,10 +23027,10 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23233,7 +23233,7 @@
         <v>1.87</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -24042,10 +24042,10 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT117" t="n">
         <v>1.8</v>
@@ -24448,10 +24448,10 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24654,7 +24654,7 @@
         <v>2.25</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU119" t="n">
         <v>1.87</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT121" t="n">
         <v>0.63</v>
@@ -25263,7 +25263,7 @@
         <v>1</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU122" t="n">
         <v>1.76</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25666,7 +25666,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT124" t="n">
         <v>0.93</v>
@@ -26278,7 +26278,7 @@
         <v>1.5</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27496,7 +27496,7 @@
         <v>1.69</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27696,7 +27696,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT135" t="n">
         <v>0.87</v>
@@ -28105,7 +28105,7 @@
         <v>0.75</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT137" t="n">
         <v>0.93</v>
@@ -28711,7 +28711,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT139" t="n">
         <v>0.44</v>
@@ -29120,7 +29120,7 @@
         <v>1.13</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29726,7 +29726,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT144" t="n">
         <v>0.5</v>
@@ -29932,7 +29932,7 @@
         <v>2.38</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU145" t="n">
         <v>1.73</v>
@@ -30135,7 +30135,7 @@
         <v>1</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU146" t="n">
         <v>1.46</v>
@@ -30335,7 +30335,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT147" t="n">
         <v>0.63</v>
@@ -30947,7 +30947,7 @@
         <v>1.13</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU150" t="n">
         <v>1.3</v>
@@ -31147,7 +31147,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT151" t="n">
         <v>1.25</v>
@@ -31959,10 +31959,10 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32368,7 +32368,7 @@
         <v>2.75</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32974,7 +32974,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT160" t="n">
         <v>2.13</v>
@@ -33789,7 +33789,7 @@
         <v>1.87</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU164" t="n">
         <v>2.01</v>
@@ -33992,7 +33992,7 @@
         <v>1.56</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34395,7 +34395,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT167" t="n">
         <v>0.88</v>
@@ -34801,7 +34801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT169" t="n">
         <v>0.87</v>
@@ -35004,10 +35004,10 @@
         <v>1.4</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -35210,7 +35210,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU171" t="n">
         <v>1.39</v>
@@ -36019,7 +36019,7 @@
         <v>0.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT175" t="n">
         <v>0.93</v>
@@ -37443,7 +37443,7 @@
         <v>1</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT184" t="n">
         <v>0.88</v>
@@ -38049,7 +38049,7 @@
         <v>1.09</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT185" t="n">
         <v>1</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -38458,7 +38458,7 @@
         <v>1.13</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU187" t="n">
         <v>1.2</v>
@@ -38661,7 +38661,7 @@
         <v>0.75</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU188" t="n">
         <v>1.23</v>
@@ -39064,7 +39064,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT190" t="n">
         <v>1.8</v>
@@ -39267,7 +39267,7 @@
         <v>2</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT191" t="n">
         <v>2.13</v>
@@ -40285,7 +40285,7 @@
         <v>1.56</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40485,7 +40485,7 @@
         <v>1.08</v>
       </c>
       <c r="AS197" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT197" t="n">
         <v>1</v>
@@ -41097,7 +41097,7 @@
         <v>1.87</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU200" t="n">
         <v>1.95</v>
@@ -41297,7 +41297,7 @@
         <v>0.42</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT201" t="n">
         <v>0.63</v>
@@ -41500,10 +41500,10 @@
         <v>0.58</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU202" t="n">
         <v>1.46</v>
@@ -42112,7 +42112,7 @@
         <v>1</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42718,7 +42718,7 @@
         <v>2.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT208" t="n">
         <v>1.94</v>
@@ -43124,7 +43124,7 @@
         <v>0.23</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT210" t="n">
         <v>0.44</v>
@@ -43530,7 +43530,7 @@
         <v>0.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT212" t="n">
         <v>0.63</v>
@@ -43736,7 +43736,7 @@
         <v>1</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU213" t="n">
         <v>1.36</v>
@@ -44345,7 +44345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -44548,7 +44548,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -44751,7 +44751,7 @@
         <v>1.69</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU218" t="n">
         <v>1.26</v>
@@ -44951,7 +44951,7 @@
         <v>1.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT219" t="n">
         <v>1.25</v>
@@ -45154,7 +45154,7 @@
         <v>0.54</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT220" t="n">
         <v>0.5</v>
@@ -46575,10 +46575,10 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU227" t="n">
         <v>2.06</v>
@@ -46781,7 +46781,7 @@
         <v>1.13</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.73</v>
+        <v>2.63</v>
       </c>
       <c r="AU228" t="n">
         <v>1.64</v>
@@ -47184,7 +47184,7 @@
         <v>0.43</v>
       </c>
       <c r="AS230" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT230" t="n">
         <v>0.44</v>
@@ -47387,7 +47387,7 @@
         <v>0.93</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT231" t="n">
         <v>0.87</v>
@@ -47796,7 +47796,7 @@
         <v>1.87</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AU233" t="n">
         <v>1.89</v>
@@ -47996,7 +47996,7 @@
         <v>0.71</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AT234" t="n">
         <v>0.88</v>
@@ -49217,7 +49217,7 @@
         <v>1.13</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU240" t="n">
         <v>1.28</v>
@@ -51160,13 +51160,13 @@
         </is>
       </c>
       <c r="Q250" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S250" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T250" t="n">
         <v>2.05</v>
@@ -51283,22 +51283,834 @@
         <v>2.35</v>
       </c>
       <c r="BF250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG250" t="n">
         <v>0</v>
       </c>
       <c r="BH250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ250" t="n">
         <v>6</v>
       </c>
       <c r="BK250" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>5947166</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45042.45833333334</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>2</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>4</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['6', '54']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['18', '88']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>3</v>
+      </c>
+      <c r="R251" t="n">
+        <v>6</v>
+      </c>
+      <c r="S251" t="n">
+        <v>9</v>
+      </c>
+      <c r="T251" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V251" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>5947165</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45042.45833333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>4</v>
+      </c>
+      <c r="R252" t="n">
+        <v>5</v>
+      </c>
+      <c r="S252" t="n">
+        <v>9</v>
+      </c>
+      <c r="T252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V252" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5893359</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45042.5625</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>1</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3</v>
+      </c>
+      <c r="S253" t="n">
+        <v>4</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5947167</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="n">
+        <v>45042.5625</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q254" t="n">
+        <v>3</v>
+      </c>
+      <c r="R254" t="n">
+        <v>4</v>
+      </c>
+      <c r="S254" t="n">
+        <v>7</v>
+      </c>
+      <c r="T254" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI254" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ254" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK254" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK254"/>
+  <dimension ref="A1:BK257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT7" t="n">
         <v>0.88</v>
@@ -2730,7 +2730,7 @@
         <v>1.88</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT12" t="n">
         <v>0.44</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>1.5</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>1.25</v>
@@ -6790,7 +6790,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU31" t="n">
         <v>0.74</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -7602,7 +7602,7 @@
         <v>1.06</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU35" t="n">
         <v>0.86</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT36" t="n">
         <v>0.63</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9835,7 +9835,7 @@
         <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10038,7 +10038,7 @@
         <v>1.69</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT51" t="n">
         <v>0.88</v>
@@ -11050,10 +11050,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU52" t="n">
         <v>1.16</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT54" t="n">
         <v>1.38</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT57" t="n">
         <v>2.13</v>
@@ -12474,7 +12474,7 @@
         <v>1.69</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12677,7 +12677,7 @@
         <v>2.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -13286,7 +13286,7 @@
         <v>2.25</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU63" t="n">
         <v>2.15</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT67" t="n">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT71" t="n">
         <v>0.8100000000000001</v>
@@ -15925,7 +15925,7 @@
         <v>1.06</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT79" t="n">
         <v>0.63</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -18361,7 +18361,7 @@
         <v>1.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18564,7 +18564,7 @@
         <v>2.25</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.94</v>
@@ -18967,7 +18967,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT91" t="n">
         <v>1.94</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT95" t="n">
         <v>0.44</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -21000,7 +21000,7 @@
         <v>2.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU101" t="n">
         <v>1.83</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>1.25</v>
@@ -22015,7 +22015,7 @@
         <v>2.38</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT112" t="n">
         <v>1.25</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT113" t="n">
         <v>0.63</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24248,7 +24248,7 @@
         <v>1.69</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24854,10 +24854,10 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25669,7 +25669,7 @@
         <v>1.69</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -26072,7 +26072,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT126" t="n">
         <v>0.5600000000000001</v>
@@ -27290,7 +27290,7 @@
         <v>0.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT132" t="n">
         <v>0.5</v>
@@ -27902,7 +27902,7 @@
         <v>1.69</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU135" t="n">
         <v>2.25</v>
@@ -28308,7 +28308,7 @@
         <v>1.88</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28511,7 +28511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -29117,7 +29117,7 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT141" t="n">
         <v>1.38</v>
@@ -29523,7 +29523,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT143" t="n">
         <v>1.94</v>
@@ -30538,10 +30538,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU148" t="n">
         <v>2.01</v>
@@ -30944,7 +30944,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT150" t="n">
         <v>2.63</v>
@@ -32568,10 +32568,10 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU158" t="n">
         <v>1.75</v>
@@ -33180,7 +33180,7 @@
         <v>0.75</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33380,7 +33380,7 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT162" t="n">
         <v>0.5600000000000001</v>
@@ -33786,7 +33786,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT164" t="n">
         <v>0.8100000000000001</v>
@@ -34804,7 +34804,7 @@
         <v>1.88</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU169" t="n">
         <v>1.68</v>
@@ -35616,7 +35616,7 @@
         <v>2.75</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU173" t="n">
         <v>2.68</v>
@@ -36022,7 +36022,7 @@
         <v>1.38</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>2.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT177" t="n">
         <v>1.94</v>
@@ -36631,7 +36631,7 @@
         <v>1.5</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU178" t="n">
         <v>1.52</v>
@@ -37643,7 +37643,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT183" t="n">
         <v>0.5</v>
@@ -38455,7 +38455,7 @@
         <v>1.27</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT187" t="n">
         <v>1.25</v>
@@ -38861,7 +38861,7 @@
         <v>1.55</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT189" t="n">
         <v>1.25</v>
@@ -39067,7 +39067,7 @@
         <v>1.06</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU190" t="n">
         <v>1.16</v>
@@ -39473,7 +39473,7 @@
         <v>1.69</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -40894,7 +40894,7 @@
         <v>0.75</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU199" t="n">
         <v>1.3</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT200" t="n">
         <v>2.63</v>
@@ -41706,7 +41706,7 @@
         <v>2.25</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -41906,7 +41906,7 @@
         <v>0.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT204" t="n">
         <v>0.88</v>
@@ -42312,10 +42312,10 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU206" t="n">
         <v>1.26</v>
@@ -43936,7 +43936,7 @@
         <v>0.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT214" t="n">
         <v>0.5600000000000001</v>
@@ -44139,10 +44139,10 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU215" t="n">
         <v>1.66</v>
@@ -45360,7 +45360,7 @@
         <v>1.56</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU221" t="n">
         <v>1.4</v>
@@ -45966,7 +45966,7 @@
         <v>2.15</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT224" t="n">
         <v>2.13</v>
@@ -46172,7 +46172,7 @@
         <v>1</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU225" t="n">
         <v>1.77</v>
@@ -46778,7 +46778,7 @@
         <v>2.71</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT228" t="n">
         <v>2.63</v>
@@ -47390,7 +47390,7 @@
         <v>1.38</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU231" t="n">
         <v>1.45</v>
@@ -47593,7 +47593,7 @@
         <v>1</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AU232" t="n">
         <v>1.36</v>
@@ -47793,7 +47793,7 @@
         <v>1.43</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AT233" t="n">
         <v>1.38</v>
@@ -49014,7 +49014,7 @@
         <v>1</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AU239" t="n">
         <v>1.7</v>
@@ -49214,7 +49214,7 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AT240" t="n">
         <v>0.8100000000000001</v>
@@ -51772,10 +51772,10 @@
         <v>1</v>
       </c>
       <c r="R253" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S253" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T253" t="n">
         <v>0</v>
@@ -51892,22 +51892,22 @@
         <v>0</v>
       </c>
       <c r="BF253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH253" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI253" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ253" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BK253" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -52111,6 +52111,615 @@
       </c>
       <c r="BK254" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5893360</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="n">
+        <v>45043.39583333334</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2</v>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K255" t="n">
+        <v>2</v>
+      </c>
+      <c r="L255" t="n">
+        <v>3</v>
+      </c>
+      <c r="M255" t="n">
+        <v>2</v>
+      </c>
+      <c r="N255" t="n">
+        <v>5</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>['45+3', '76', '90+1']</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>['14', '84']</t>
+        </is>
+      </c>
+      <c r="Q255" t="n">
+        <v>10</v>
+      </c>
+      <c r="R255" t="n">
+        <v>1</v>
+      </c>
+      <c r="S255" t="n">
+        <v>11</v>
+      </c>
+      <c r="T255" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U255" t="n">
+        <v>2</v>
+      </c>
+      <c r="V255" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W255" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X255" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y255" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA255" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB255" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC255" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE255" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF255" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG255" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH255" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL255" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM255" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP255" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ255" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR255" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AS255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT255" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU255" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV255" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW255" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB255" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE255" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG255" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH255" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI255" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ255" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK255" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>5893358</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="n">
+        <v>45043.47916666666</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q256" t="n">
+        <v>6</v>
+      </c>
+      <c r="R256" t="n">
+        <v>2</v>
+      </c>
+      <c r="S256" t="n">
+        <v>8</v>
+      </c>
+      <c r="T256" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U256" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V256" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X256" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y256" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z256" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB256" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE256" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF256" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG256" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH256" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM256" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP256" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ256" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR256" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AS256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT256" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU256" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV256" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW256" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF256" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG256" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH256" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI256" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ256" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK256" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>5947168</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E257" s="2" t="n">
+        <v>45043.5625</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q257" t="n">
+        <v>1</v>
+      </c>
+      <c r="R257" t="n">
+        <v>4</v>
+      </c>
+      <c r="S257" t="n">
+        <v>5</v>
+      </c>
+      <c r="T257" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U257" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V257" t="n">
+        <v>4</v>
+      </c>
+      <c r="W257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X257" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y257" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z257" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA257" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB257" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC257" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE257" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AF257" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG257" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH257" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL257" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM257" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP257" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ257" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AR257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS257" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT257" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU257" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV257" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW257" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB257" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF257" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG257" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH257" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI257" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ257" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK257" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK257"/>
+  <dimension ref="A1:BK259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT8" t="n">
         <v>0.8100000000000001</v>
@@ -2324,7 +2324,7 @@
         <v>1.69</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT11" t="n">
         <v>1.69</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.25</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5569,7 +5569,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT25" t="n">
         <v>1.94</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -7196,7 +7196,7 @@
         <v>1.56</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -9023,7 +9023,7 @@
         <v>2.75</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT48" t="n">
         <v>0.8100000000000001</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5600000000000001</v>
@@ -10647,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -12271,7 +12271,7 @@
         <v>1.06</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -13080,7 +13080,7 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT62" t="n">
         <v>0.5</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT63" t="n">
         <v>0.8100000000000001</v>
@@ -14098,7 +14098,7 @@
         <v>1.94</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -15313,10 +15313,10 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -16331,7 +16331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU78" t="n">
         <v>1.36</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT81" t="n">
         <v>2.63</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -19576,7 +19576,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5600000000000001</v>
@@ -19985,7 +19985,7 @@
         <v>1</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20391,7 +20391,7 @@
         <v>1.25</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -21809,7 +21809,7 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT105" t="n">
         <v>2.13</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT111" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>1.94</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -24651,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT119" t="n">
         <v>2.63</v>
@@ -25463,10 +25463,10 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -27087,7 +27087,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT131" t="n">
         <v>0.88</v>
@@ -27699,7 +27699,7 @@
         <v>1.06</v>
       </c>
       <c r="AT134" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -28105,7 +28105,7 @@
         <v>0.75</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT137" t="n">
         <v>0.88</v>
@@ -30741,10 +30741,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -31962,7 +31962,7 @@
         <v>1.38</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32974,7 +32974,7 @@
         <v>2.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT160" t="n">
         <v>2.13</v>
@@ -33586,7 +33586,7 @@
         <v>2.38</v>
       </c>
       <c r="AT163" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT166" t="n">
         <v>0.63</v>
@@ -34801,7 +34801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT169" t="n">
         <v>0.8100000000000001</v>
@@ -35210,7 +35210,7 @@
         <v>1.69</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU171" t="n">
         <v>1.39</v>
@@ -37034,7 +37034,7 @@
         <v>0.18</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT180" t="n">
         <v>0.44</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT184" t="n">
         <v>0.88</v>
@@ -38052,7 +38052,7 @@
         <v>1.69</v>
       </c>
       <c r="AT185" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38458,7 +38458,7 @@
         <v>1.25</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU187" t="n">
         <v>1.2</v>
@@ -40485,10 +40485,10 @@
         <v>1.08</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT197" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -41703,7 +41703,7 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT203" t="n">
         <v>1.69</v>
@@ -42112,7 +42112,7 @@
         <v>1</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -43330,7 +43330,7 @@
         <v>0.75</v>
       </c>
       <c r="AT211" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU211" t="n">
         <v>1.29</v>
@@ -43530,7 +43530,7 @@
         <v>0.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT212" t="n">
         <v>0.63</v>
@@ -44548,7 +44548,7 @@
         <v>2.38</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -45763,7 +45763,7 @@
         <v>2.38</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT223" t="n">
         <v>1.94</v>
@@ -46578,7 +46578,7 @@
         <v>1.69</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU227" t="n">
         <v>2.06</v>
@@ -47184,7 +47184,7 @@
         <v>0.43</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT230" t="n">
         <v>0.44</v>
@@ -48405,7 +48405,7 @@
         <v>2.75</v>
       </c>
       <c r="AT236" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU236" t="n">
         <v>2.49</v>
@@ -48605,7 +48605,7 @@
         <v>1.43</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT237" t="n">
         <v>1.25</v>
@@ -50029,7 +50029,7 @@
         <v>1.56</v>
       </c>
       <c r="AT244" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AT246" t="n">
         <v>1.25</v>
@@ -51650,10 +51650,10 @@
         <v>1.13</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU252" t="n">
         <v>1.76</v>
@@ -52719,6 +52719,412 @@
         <v>9</v>
       </c>
       <c r="BK257" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>5947169</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E258" s="2" t="n">
+        <v>45045.5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3</v>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q258" t="n">
+        <v>8</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1</v>
+      </c>
+      <c r="S258" t="n">
+        <v>9</v>
+      </c>
+      <c r="T258" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U258" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V258" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="W258" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X258" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y258" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Z258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA258" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AB258" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC258" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE258" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG258" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH258" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL258" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM258" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP258" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ258" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR258" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS258" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT258" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU258" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV258" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW258" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB258" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE258" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF258" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG258" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH258" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI258" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ258" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK258" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>5947170</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E259" s="2" t="n">
+        <v>45045.58333333334</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3</v>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>2</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2</v>
+      </c>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>['29', '80']</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q259" t="n">
+        <v>6</v>
+      </c>
+      <c r="R259" t="n">
+        <v>3</v>
+      </c>
+      <c r="S259" t="n">
+        <v>9</v>
+      </c>
+      <c r="T259" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U259" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V259" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W259" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X259" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y259" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Z259" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA259" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AB259" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE259" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF259" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG259" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH259" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL259" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM259" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP259" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AQ259" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR259" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS259" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT259" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU259" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV259" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW259" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF259" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG259" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI259" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ259" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK259" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK259"/>
+  <dimension ref="A1:BK265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.06</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT6" t="n">
         <v>0.8100000000000001</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT9" t="n">
         <v>1.12</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.76</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT13" t="n">
         <v>0.63</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT14" t="n">
         <v>0.88</v>
@@ -3745,7 +3745,7 @@
         <v>1.38</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT17" t="n">
         <v>1.18</v>
@@ -5166,7 +5166,7 @@
         <v>2.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU23" t="n">
         <v>2.29</v>
@@ -5572,7 +5572,7 @@
         <v>1.76</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT30" t="n">
         <v>2.13</v>
@@ -6790,7 +6790,7 @@
         <v>0.75</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU31" t="n">
         <v>0.74</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU32" t="n">
         <v>1.68</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT34" t="n">
         <v>1.25</v>
@@ -8008,7 +8008,7 @@
         <v>2.38</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT39" t="n">
         <v>1.25</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT40" t="n">
         <v>2.13</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT41" t="n">
         <v>1.38</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT42" t="n">
         <v>1.18</v>
@@ -9429,7 +9429,7 @@
         <v>1.06</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU44" t="n">
         <v>0.95</v>
@@ -9632,7 +9632,7 @@
         <v>0.75</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -9835,7 +9835,7 @@
         <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT47" t="n">
         <v>0.8100000000000001</v>
@@ -10444,7 +10444,7 @@
         <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT51" t="n">
         <v>0.88</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT56" t="n">
         <v>0.8100000000000001</v>
@@ -12471,10 +12471,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12674,7 +12674,7 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT60" t="n">
         <v>0.88</v>
@@ -12880,7 +12880,7 @@
         <v>1.38</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13083,7 +13083,7 @@
         <v>1.76</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -13692,7 +13692,7 @@
         <v>1.56</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -14095,7 +14095,7 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT67" t="n">
         <v>1.12</v>
@@ -14504,7 +14504,7 @@
         <v>2.38</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT70" t="n">
         <v>0.88</v>
@@ -15110,10 +15110,10 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT74" t="n">
         <v>2.13</v>
@@ -16128,7 +16128,7 @@
         <v>1.25</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT78" t="n">
         <v>1.12</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT79" t="n">
         <v>0.63</v>
@@ -16737,7 +16737,7 @@
         <v>0.75</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU80" t="n">
         <v>0.96</v>
@@ -17346,7 +17346,7 @@
         <v>1.69</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -18361,7 +18361,7 @@
         <v>1.56</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT90" t="n">
         <v>0.8100000000000001</v>
@@ -18970,7 +18970,7 @@
         <v>1.25</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT92" t="n">
         <v>1.25</v>
@@ -19373,10 +19373,10 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -19579,7 +19579,7 @@
         <v>1.76</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,10 +19779,10 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT97" t="n">
         <v>0.63</v>
@@ -21606,7 +21606,7 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT104" t="n">
         <v>0.88</v>
@@ -22215,10 +22215,10 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22421,7 +22421,7 @@
         <v>1.56</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22621,7 +22621,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT109" t="n">
         <v>1.12</v>
@@ -22827,7 +22827,7 @@
         <v>0.75</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23230,7 +23230,7 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT112" t="n">
         <v>1.18</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24248,7 +24248,7 @@
         <v>1.69</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24854,10 +24854,10 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT122" t="n">
         <v>2.63</v>
@@ -25872,7 +25872,7 @@
         <v>0.75</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26075,7 +26075,7 @@
         <v>1.25</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26275,7 +26275,7 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT127" t="n">
         <v>1.38</v>
@@ -27293,7 +27293,7 @@
         <v>1.25</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT133" t="n">
         <v>2.63</v>
@@ -28508,10 +28508,10 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -28714,7 +28714,7 @@
         <v>1.38</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT140" t="n">
         <v>0.63</v>
@@ -29320,10 +29320,10 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29523,10 +29523,10 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -29729,7 +29729,7 @@
         <v>1.69</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -30538,7 +30538,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT148" t="n">
         <v>0.8100000000000001</v>
@@ -31556,7 +31556,7 @@
         <v>1.56</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -31756,10 +31756,10 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -32162,10 +32162,10 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT157" t="n">
         <v>1.38</v>
@@ -32571,7 +32571,7 @@
         <v>1.25</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU158" t="n">
         <v>1.75</v>
@@ -32771,10 +32771,10 @@
         <v>2.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -33383,7 +33383,7 @@
         <v>1.25</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33786,7 +33786,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT164" t="n">
         <v>0.8100000000000001</v>
@@ -34601,7 +34601,7 @@
         <v>1</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35207,7 +35207,7 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT171" t="n">
         <v>1.18</v>
@@ -35410,10 +35410,10 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35613,10 +35613,10 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU173" t="n">
         <v>2.68</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT174" t="n">
         <v>1.25</v>
@@ -36428,7 +36428,7 @@
         <v>1.25</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -36628,7 +36628,7 @@
         <v>0.82</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT178" t="n">
         <v>0.8100000000000001</v>
@@ -36834,7 +36834,7 @@
         <v>1.56</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37037,7 +37037,7 @@
         <v>2.29</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37643,10 +37643,10 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -38252,7 +38252,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT186" t="n">
         <v>1.38</v>
@@ -39067,7 +39067,7 @@
         <v>1.06</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU190" t="n">
         <v>1.16</v>
@@ -39470,7 +39470,7 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT192" t="n">
         <v>0.88</v>
@@ -39673,10 +39673,10 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU193" t="n">
         <v>2.57</v>
@@ -39879,7 +39879,7 @@
         <v>2.38</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40079,10 +40079,10 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40691,7 +40691,7 @@
         <v>1</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT200" t="n">
         <v>2.63</v>
@@ -41706,7 +41706,7 @@
         <v>2.29</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -42109,7 +42109,7 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT205" t="n">
         <v>1.18</v>
@@ -42515,7 +42515,7 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT207" t="n">
         <v>1.25</v>
@@ -42721,7 +42721,7 @@
         <v>1.06</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU208" t="n">
         <v>1.12</v>
@@ -42921,7 +42921,7 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT209" t="n">
         <v>2.13</v>
@@ -43127,7 +43127,7 @@
         <v>1.69</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU210" t="n">
         <v>2</v>
@@ -43936,10 +43936,10 @@
         <v>0.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU214" t="n">
         <v>1.88</v>
@@ -44342,7 +44342,7 @@
         <v>2.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT216" t="n">
         <v>2.63</v>
@@ -44748,7 +44748,7 @@
         <v>0.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT218" t="n">
         <v>0.8100000000000001</v>
@@ -45157,7 +45157,7 @@
         <v>1.38</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU220" t="n">
         <v>1.44</v>
@@ -45560,7 +45560,7 @@
         <v>0.77</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT222" t="n">
         <v>0.88</v>
@@ -45766,7 +45766,7 @@
         <v>2.29</v>
       </c>
       <c r="AT223" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU223" t="n">
         <v>1.71</v>
@@ -46169,10 +46169,10 @@
         <v>1.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU225" t="n">
         <v>1.77</v>
@@ -46372,10 +46372,10 @@
         <v>0.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -47187,7 +47187,7 @@
         <v>1.76</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU230" t="n">
         <v>1.74</v>
@@ -47593,7 +47593,7 @@
         <v>1</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU232" t="n">
         <v>1.36</v>
@@ -47793,7 +47793,7 @@
         <v>1.43</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT233" t="n">
         <v>1.38</v>
@@ -48199,10 +48199,10 @@
         <v>0.57</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU235" t="n">
         <v>1.23</v>
@@ -48402,7 +48402,7 @@
         <v>1.14</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT236" t="n">
         <v>1.12</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT239" t="n">
         <v>0.88</v>
@@ -49420,7 +49420,7 @@
         <v>2.38</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -49620,7 +49620,7 @@
         <v>0.73</v>
       </c>
       <c r="AS242" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT242" t="n">
         <v>0.88</v>
@@ -49682,7 +49682,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>5893354</v>
+        <v>5922615</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -49702,156 +49702,156 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K243" t="n">
         <v>1</v>
       </c>
       <c r="L243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '84']</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q243" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R243" t="n">
+        <v>4</v>
+      </c>
+      <c r="S243" t="n">
         <v>8</v>
       </c>
-      <c r="S243" t="n">
-        <v>11</v>
-      </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V243" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W243" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X243" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Y243" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z243" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA243" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB243" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC243" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AD243" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE243" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AF243" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG243" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH243" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI243" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ243" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK243" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AL243" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM243" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN243" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO243" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP243" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ243" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB243" t="n">
         <v>1.8</v>
       </c>
-      <c r="AR243" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS243" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT243" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AU243" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AV243" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AW243" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AX243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB243" t="n">
-        <v>0</v>
-      </c>
       <c r="BC243" t="n">
         <v>0</v>
       </c>
@@ -49862,22 +49862,22 @@
         <v>0</v>
       </c>
       <c r="BF243" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG243" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH243" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI243" t="n">
         <v>4</v>
       </c>
-      <c r="BI243" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ243" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK243" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="244">
@@ -49885,7 +49885,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>5922615</v>
+        <v>5893354</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -49905,182 +49905,182 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K244" t="n">
         <v>1</v>
       </c>
       <c r="L244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
       <c r="N244" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>['20', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q244" t="n">
+        <v>3</v>
+      </c>
+      <c r="R244" t="n">
+        <v>8</v>
+      </c>
+      <c r="S244" t="n">
+        <v>11</v>
+      </c>
+      <c r="T244" t="n">
+        <v>0</v>
+      </c>
+      <c r="U244" t="n">
+        <v>0</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH244" t="n">
         <v>4</v>
       </c>
-      <c r="R244" t="n">
-        <v>4</v>
-      </c>
-      <c r="S244" t="n">
-        <v>8</v>
-      </c>
-      <c r="T244" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U244" t="n">
-        <v>2</v>
-      </c>
-      <c r="V244" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W244" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X244" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y244" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z244" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA244" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB244" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC244" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD244" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE244" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF244" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG244" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH244" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI244" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ244" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK244" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL244" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM244" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN244" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP244" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ244" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AR244" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS244" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AT244" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AU244" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AV244" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW244" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AX244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB244" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BC244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF244" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG244" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH244" t="n">
-        <v>7</v>
-      </c>
       <c r="BI244" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ244" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK244" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245">
@@ -50229,10 +50229,10 @@
         <v>0.53</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AU245" t="n">
         <v>1.46</v>
@@ -50635,7 +50635,7 @@
         <v>2.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="AT247" t="n">
         <v>2.13</v>
@@ -50841,7 +50841,7 @@
         <v>1</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AU248" t="n">
         <v>1.33</v>
@@ -51044,7 +51044,7 @@
         <v>2.38</v>
       </c>
       <c r="AT249" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AU249" t="n">
         <v>1.7</v>
@@ -51306,7 +51306,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>5947166</v>
+        <v>5947165</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -51326,98 +51326,98 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="I251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N251" t="n">
+        <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>['90+2']</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
         <v>4</v>
       </c>
-      <c r="O251" t="inlineStr">
-        <is>
-          <t>['6', '54']</t>
-        </is>
-      </c>
-      <c r="P251" t="inlineStr">
-        <is>
-          <t>['18', '88']</t>
-        </is>
-      </c>
-      <c r="Q251" t="n">
-        <v>3</v>
-      </c>
       <c r="R251" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S251" t="n">
         <v>9</v>
       </c>
       <c r="T251" t="n">
-        <v>3.38</v>
+        <v>2.38</v>
       </c>
       <c r="U251" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="V251" t="n">
-        <v>3.08</v>
+        <v>4.75</v>
       </c>
       <c r="W251" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="X251" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Y251" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="Z251" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AA251" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AB251" t="n">
         <v>1.06</v>
       </c>
       <c r="AC251" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AD251" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AE251" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="AF251" t="n">
         <v>1.03</v>
       </c>
       <c r="AG251" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AH251" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AI251" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="AJ251" t="n">
         <v>2.15</v>
@@ -51426,49 +51426,49 @@
         <v>1.62</v>
       </c>
       <c r="AL251" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AM251" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AN251" t="n">
-        <v>1.48</v>
+        <v>1.2</v>
       </c>
       <c r="AO251" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AP251" t="n">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="AQ251" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AR251" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.38</v>
+        <v>1.76</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="AU251" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AV251" t="n">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="AW251" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="AX251" t="n">
-        <v>1.28</v>
+        <v>2.15</v>
       </c>
       <c r="AY251" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AZ251" t="n">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="BA251" t="n">
         <v>0</v>
@@ -51486,22 +51486,22 @@
         <v>0</v>
       </c>
       <c r="BF251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH251" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BI251" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ251" t="n">
         <v>6</v>
       </c>
       <c r="BK251" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252">
@@ -51509,7 +51509,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>5947165</v>
+        <v>5947166</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -51529,98 +51529,98 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['6', '54']</t>
         </is>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>['90+2']</t>
+          <t>['18', '88']</t>
         </is>
       </c>
       <c r="Q252" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R252" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S252" t="n">
         <v>9</v>
       </c>
       <c r="T252" t="n">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
       <c r="U252" t="n">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="V252" t="n">
-        <v>4.75</v>
+        <v>3.08</v>
       </c>
       <c r="W252" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X252" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="Y252" t="n">
-        <v>2.99</v>
+        <v>3.04</v>
       </c>
       <c r="Z252" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AA252" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AB252" t="n">
         <v>1.06</v>
       </c>
       <c r="AC252" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AD252" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AE252" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="AF252" t="n">
         <v>1.03</v>
       </c>
       <c r="AG252" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AH252" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AI252" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="AJ252" t="n">
         <v>2.15</v>
@@ -51629,49 +51629,49 @@
         <v>1.62</v>
       </c>
       <c r="AL252" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AM252" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AN252" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="AO252" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AP252" t="n">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="AQ252" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AR252" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.76</v>
+        <v>1.38</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AU252" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="AV252" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="AW252" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="AX252" t="n">
-        <v>2.15</v>
+        <v>1.28</v>
       </c>
       <c r="AY252" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ252" t="n">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="BA252" t="n">
         <v>0</v>
@@ -51689,22 +51689,22 @@
         <v>0</v>
       </c>
       <c r="BF252" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG252" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH252" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI252" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ252" t="n">
         <v>6</v>
       </c>
       <c r="BK252" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253">
@@ -51712,7 +51712,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>5893359</v>
+        <v>5947167</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -51732,12 +51732,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -51753,10 +51753,10 @@
         <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -51765,125 +51765,125 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R253" t="n">
+        <v>4</v>
+      </c>
+      <c r="S253" t="n">
+        <v>7</v>
+      </c>
+      <c r="T253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V253" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG253" t="n">
         <v>8</v>
       </c>
-      <c r="S253" t="n">
-        <v>9</v>
-      </c>
-      <c r="T253" t="n">
-        <v>0</v>
-      </c>
-      <c r="U253" t="n">
-        <v>0</v>
-      </c>
-      <c r="V253" t="n">
-        <v>0</v>
-      </c>
-      <c r="W253" t="n">
-        <v>0</v>
-      </c>
-      <c r="X253" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y253" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC253" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD253" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AE253" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AF253" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG253" t="n">
-        <v>0</v>
-      </c>
       <c r="AH253" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI253" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AJ253" t="n">
-        <v>2.24</v>
+        <v>2.07</v>
       </c>
       <c r="AK253" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AL253" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM253" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN253" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO253" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP253" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AQ253" t="n">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AR253" t="n">
-        <v>0.67</v>
+        <v>2.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.06</v>
+        <v>1.69</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.8100000000000001</v>
+        <v>2.63</v>
       </c>
       <c r="AU253" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="AV253" t="n">
-        <v>1.22</v>
+        <v>2.15</v>
       </c>
       <c r="AW253" t="n">
-        <v>2.31</v>
+        <v>4.17</v>
       </c>
       <c r="AX253" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AY253" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ253" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA253" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BB253" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BC253" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BD253" t="n">
         <v>0</v>
@@ -51892,22 +51892,22 @@
         <v>0</v>
       </c>
       <c r="BF253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG253" t="n">
         <v>2</v>
       </c>
       <c r="BH253" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI253" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ253" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK253" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="254">
@@ -51915,7 +51915,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>5947167</v>
+        <v>5893359</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -51935,12 +51935,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -51956,10 +51956,10 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -51968,149 +51968,149 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R254" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S254" t="n">
+        <v>9</v>
+      </c>
+      <c r="T254" t="n">
+        <v>0</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0</v>
+      </c>
+      <c r="V254" t="n">
+        <v>0</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0</v>
+      </c>
+      <c r="X254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ254" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR254" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT254" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU254" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV254" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW254" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE254" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF254" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG254" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH254" t="n">
         <v>7</v>
       </c>
-      <c r="T254" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U254" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V254" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W254" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X254" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y254" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z254" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA254" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB254" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC254" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AD254" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AE254" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AF254" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG254" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH254" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI254" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AJ254" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK254" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL254" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AM254" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN254" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO254" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP254" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ254" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AR254" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AS254" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AT254" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU254" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AV254" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AW254" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AX254" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AY254" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ254" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA254" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB254" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC254" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BD254" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE254" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF254" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG254" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH254" t="n">
-        <v>4</v>
-      </c>
       <c r="BI254" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ254" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK254" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
@@ -52665,10 +52665,10 @@
         <v>1.8</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AU257" t="n">
         <v>1.85</v>
@@ -53126,6 +53126,1224 @@
       </c>
       <c r="BK259" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>5893362</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E260" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3</v>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="n">
+        <v>2</v>
+      </c>
+      <c r="N260" t="n">
+        <v>3</v>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>['57', '86']</t>
+        </is>
+      </c>
+      <c r="Q260" t="n">
+        <v>10</v>
+      </c>
+      <c r="R260" t="n">
+        <v>5</v>
+      </c>
+      <c r="S260" t="n">
+        <v>15</v>
+      </c>
+      <c r="T260" t="n">
+        <v>0</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0</v>
+      </c>
+      <c r="V260" t="n">
+        <v>0</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0</v>
+      </c>
+      <c r="X260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG260" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH260" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI260" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ260" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK260" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>5947171</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E261" s="2" t="n">
+        <v>45046.5</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3</v>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I261" t="n">
+        <v>2</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2</v>
+      </c>
+      <c r="L261" t="n">
+        <v>4</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>4</v>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>['6', '19', '78', '90']</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q261" t="n">
+        <v>6</v>
+      </c>
+      <c r="R261" t="n">
+        <v>4</v>
+      </c>
+      <c r="S261" t="n">
+        <v>10</v>
+      </c>
+      <c r="T261" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U261" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V261" t="n">
+        <v>8</v>
+      </c>
+      <c r="W261" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X261" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>5893363</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E262" s="2" t="n">
+        <v>45046.58333333334</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3</v>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>6</v>
+      </c>
+      <c r="S262" t="n">
+        <v>6</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U262" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V262" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>5893361</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E263" s="2" t="n">
+        <v>45047.5</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3</v>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>3</v>
+      </c>
+      <c r="N263" t="n">
+        <v>3</v>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>['44', '53', '73']</t>
+        </is>
+      </c>
+      <c r="Q263" t="n">
+        <v>2</v>
+      </c>
+      <c r="R263" t="n">
+        <v>4</v>
+      </c>
+      <c r="S263" t="n">
+        <v>6</v>
+      </c>
+      <c r="T263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U263" t="n">
+        <v>2</v>
+      </c>
+      <c r="V263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W263" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5947172</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="n">
+        <v>45047.58333333334</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3</v>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3</v>
+      </c>
+      <c r="N264" t="n">
+        <v>4</v>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>['12', '48', '70']</t>
+        </is>
+      </c>
+      <c r="Q264" t="n">
+        <v>6</v>
+      </c>
+      <c r="R264" t="n">
+        <v>3</v>
+      </c>
+      <c r="S264" t="n">
+        <v>9</v>
+      </c>
+      <c r="T264" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U264" t="n">
+        <v>2</v>
+      </c>
+      <c r="V264" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W264" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X264" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5893364</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="n">
+        <v>45048.5</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3</v>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q265" t="n">
+        <v>3</v>
+      </c>
+      <c r="R265" t="n">
+        <v>2</v>
+      </c>
+      <c r="S265" t="n">
+        <v>5</v>
+      </c>
+      <c r="T265" t="n">
+        <v>3</v>
+      </c>
+      <c r="U265" t="n">
+        <v>2</v>
+      </c>
+      <c r="V265" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W265" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X265" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -54125,19 +54125,19 @@
         <v>4.1</v>
       </c>
       <c r="BF264" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG264" t="n">
         <v>4</v>
       </c>
-      <c r="BG264" t="n">
-        <v>3</v>
-      </c>
       <c r="BH264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ264" t="n">
         <v>5</v>
-      </c>
-      <c r="BI264" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ264" t="n">
-        <v>9</v>
       </c>
       <c r="BK264" t="n">
         <v>7</v>
@@ -54205,13 +54205,13 @@
         </is>
       </c>
       <c r="Q265" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S265" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T265" t="n">
         <v>3</v>
@@ -54328,22 +54328,22 @@
         <v>4.8</v>
       </c>
       <c r="BF265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG265" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH265" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BI265" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ265" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BK265" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -49682,7 +49682,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>5922615</v>
+        <v>5893354</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -49702,182 +49702,182 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Kolubara</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Radnički Kragujevac</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K243" t="n">
         <v>1</v>
       </c>
       <c r="L243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>['20', '84']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>['90+1']</t>
+          <t>['8']</t>
         </is>
       </c>
       <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>8</v>
+      </c>
+      <c r="S243" t="n">
+        <v>11</v>
+      </c>
+      <c r="T243" t="n">
+        <v>0</v>
+      </c>
+      <c r="U243" t="n">
+        <v>0</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH243" t="n">
         <v>4</v>
       </c>
-      <c r="R243" t="n">
-        <v>4</v>
-      </c>
-      <c r="S243" t="n">
-        <v>8</v>
-      </c>
-      <c r="T243" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U243" t="n">
-        <v>2</v>
-      </c>
-      <c r="V243" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="W243" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X243" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y243" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AA243" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB243" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AC243" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AD243" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE243" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AF243" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AG243" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI243" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ243" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AK243" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AL243" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AM243" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AN243" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AO243" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP243" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AQ243" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AR243" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AS243" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AT243" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AU243" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AV243" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AW243" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AX243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY243" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB243" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="BC243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE243" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF243" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG243" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH243" t="n">
-        <v>7</v>
-      </c>
       <c r="BI243" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ243" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK243" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
@@ -49885,7 +49885,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>5893354</v>
+        <v>5922615</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -49905,156 +49905,156 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Kolubara</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Radnički Kragujevac</t>
         </is>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K244" t="n">
         <v>1</v>
       </c>
       <c r="L244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
       <c r="N244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['20', '84']</t>
         </is>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>['8']</t>
+          <t>['90+1']</t>
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R244" t="n">
+        <v>4</v>
+      </c>
+      <c r="S244" t="n">
         <v>8</v>
       </c>
-      <c r="S244" t="n">
-        <v>11</v>
-      </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="U244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V244" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W244" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X244" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="Y244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA244" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB244" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC244" t="n">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="AD244" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AE244" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AF244" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG244" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AH244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI244" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ244" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AK244" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AL244" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM244" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN244" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO244" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP244" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ244" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB244" t="n">
         <v>1.8</v>
       </c>
-      <c r="AR244" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AS244" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AT244" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU244" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AV244" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AW244" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AX244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY244" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA244" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB244" t="n">
-        <v>0</v>
-      </c>
       <c r="BC244" t="n">
         <v>0</v>
       </c>
@@ -50065,22 +50065,22 @@
         <v>0</v>
       </c>
       <c r="BF244" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BG244" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BH244" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI244" t="n">
         <v>4</v>
       </c>
-      <c r="BI244" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ244" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK244" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -53133,7 +53133,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>5893362</v>
+        <v>5947171</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -53153,182 +53153,182 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N260" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>['68']</t>
+          <t>['6', '19', '78', '90']</t>
         </is>
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>['57', '86']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q260" t="n">
+        <v>6</v>
+      </c>
+      <c r="R260" t="n">
+        <v>4</v>
+      </c>
+      <c r="S260" t="n">
         <v>10</v>
       </c>
-      <c r="R260" t="n">
+      <c r="T260" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U260" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V260" t="n">
+        <v>8</v>
+      </c>
+      <c r="W260" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X260" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AU260" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AV260" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW260" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AX260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC260" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE260" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF260" t="n">
         <v>5</v>
       </c>
-      <c r="S260" t="n">
-        <v>15</v>
-      </c>
-      <c r="T260" t="n">
-        <v>0</v>
-      </c>
-      <c r="U260" t="n">
-        <v>0</v>
-      </c>
-      <c r="V260" t="n">
-        <v>0</v>
-      </c>
-      <c r="W260" t="n">
-        <v>0</v>
-      </c>
-      <c r="X260" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y260" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC260" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="AD260" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE260" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AF260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ260" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AK260" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="AL260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ260" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR260" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS260" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT260" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AU260" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AV260" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AW260" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AX260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY260" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE260" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF260" t="n">
-        <v>9</v>
-      </c>
       <c r="BG260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH260" t="n">
         <v>7</v>
       </c>
       <c r="BI260" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ260" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK260" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261">
@@ -53336,7 +53336,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>5947171</v>
+        <v>5893362</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -53356,140 +53356,140 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="I261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="n">
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N261" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>['6', '19', '78', '90']</t>
+          <t>['68']</t>
         </is>
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['57', '86']</t>
         </is>
       </c>
       <c r="Q261" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R261" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S261" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T261" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="U261" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="V261" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="X261" t="n">
-        <v>3.32</v>
+        <v>0</v>
       </c>
       <c r="Y261" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="Z261" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AA261" t="n">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="AB261" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AC261" t="n">
-        <v>1.26</v>
+        <v>1.92</v>
       </c>
       <c r="AD261" t="n">
-        <v>5.65</v>
+        <v>3.25</v>
       </c>
       <c r="AE261" t="n">
-        <v>10</v>
+        <v>3.45</v>
       </c>
       <c r="AF261" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AG261" t="n">
-        <v>17.75</v>
+        <v>0</v>
       </c>
       <c r="AH261" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AI261" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="AJ261" t="n">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="AK261" t="n">
-        <v>2.23</v>
+        <v>1.65</v>
       </c>
       <c r="AL261" t="n">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AM261" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AN261" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="AO261" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AP261" t="n">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AQ261" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="AR261" t="n">
-        <v>1.69</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AS261" t="n">
-        <v>2.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT261" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU261" t="n">
         <v>1.59</v>
       </c>
-      <c r="AU261" t="n">
-        <v>2.45</v>
-      </c>
       <c r="AV261" t="n">
-        <v>1.66</v>
+        <v>0.91</v>
       </c>
       <c r="AW261" t="n">
-        <v>4.11</v>
+        <v>2.5</v>
       </c>
       <c r="AX261" t="n">
         <v>0</v>
@@ -53507,7 +53507,7 @@
         <v>0</v>
       </c>
       <c r="BC261" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BD261" t="n">
         <v>0</v>
@@ -53516,22 +53516,22 @@
         <v>0</v>
       </c>
       <c r="BF261" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BG261" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH261" t="n">
         <v>7</v>
       </c>
       <c r="BI261" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BJ261" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK261" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262">

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK265"/>
+  <dimension ref="A1:BK273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1715,7 +1715,7 @@
         <v>2.76</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.76</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU13" t="n">
         <v>2.22</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>0.71</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT17" t="n">
         <v>1.18</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT21" t="n">
         <v>0.8100000000000001</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5166,7 +5166,7 @@
         <v>2.29</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>2.29</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT24" t="n">
         <v>0.88</v>
@@ -5775,7 +5775,7 @@
         <v>2.76</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT28" t="n">
         <v>0.88</v>
@@ -6587,7 +6587,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT31" t="n">
         <v>1.59</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT33" t="n">
         <v>1.12</v>
@@ -7399,7 +7399,7 @@
         <v>1.82</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU34" t="n">
         <v>1.75</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU35" t="n">
         <v>0.86</v>
@@ -7805,7 +7805,7 @@
         <v>1.25</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU36" t="n">
         <v>0.95</v>
@@ -8005,10 +8005,10 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT38" t="n">
         <v>0.88</v>
@@ -8414,7 +8414,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8614,10 +8614,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU40" t="n">
         <v>1.4</v>
@@ -8820,7 +8820,7 @@
         <v>1.59</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU44" t="n">
         <v>0.95</v>
@@ -9629,7 +9629,7 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT45" t="n">
         <v>2</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT46" t="n">
         <v>1.59</v>
@@ -10038,7 +10038,7 @@
         <v>1.59</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10644,7 +10644,7 @@
         <v>0.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT50" t="n">
         <v>1.12</v>
@@ -11053,7 +11053,7 @@
         <v>1.25</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU52" t="n">
         <v>1.16</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11459,7 +11459,7 @@
         <v>1.25</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11659,10 +11659,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU55" t="n">
         <v>0.8</v>
@@ -12068,7 +12068,7 @@
         <v>1.25</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12268,7 +12268,7 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
         <v>1.18</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13083,7 +13083,7 @@
         <v>1.76</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13286,7 +13286,7 @@
         <v>2.29</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU63" t="n">
         <v>2.15</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT64" t="n">
         <v>0.88</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -13892,10 +13892,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU66" t="n">
         <v>1.27</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT69" t="n">
         <v>0.71</v>
@@ -15519,7 +15519,7 @@
         <v>2.76</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -15719,10 +15719,10 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -15922,7 +15922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT76" t="n">
         <v>0.88</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT78" t="n">
         <v>1.12</v>
@@ -16534,7 +16534,7 @@
         <v>1.82</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU79" t="n">
         <v>2.01</v>
@@ -16734,10 +16734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU80" t="n">
         <v>0.96</v>
@@ -16940,7 +16940,7 @@
         <v>1.76</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU81" t="n">
         <v>1.49</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT83" t="n">
         <v>0.71</v>
@@ -17546,10 +17546,10 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17749,10 +17749,10 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -17952,7 +17952,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT86" t="n">
         <v>0.88</v>
@@ -18155,10 +18155,10 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18358,7 +18358,7 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT88" t="n">
         <v>1.59</v>
@@ -19173,7 +19173,7 @@
         <v>1.59</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU92" t="n">
         <v>1.38</v>
@@ -19376,7 +19376,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -19782,7 +19782,7 @@
         <v>1.82</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT96" t="n">
         <v>1.18</v>
@@ -20185,10 +20185,10 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20591,10 +20591,10 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU99" t="n">
         <v>1.07</v>
@@ -20794,10 +20794,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -20997,10 +20997,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU101" t="n">
         <v>1.83</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU102" t="n">
         <v>1.21</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT103" t="n">
         <v>0.8100000000000001</v>
@@ -21812,7 +21812,7 @@
         <v>2.29</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22012,7 +22012,7 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT106" t="n">
         <v>0.88</v>
@@ -22218,7 +22218,7 @@
         <v>2.76</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22418,7 +22418,7 @@
         <v>2.29</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT108" t="n">
         <v>2</v>
@@ -22824,7 +22824,7 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT110" t="n">
         <v>0.71</v>
@@ -23030,7 +23030,7 @@
         <v>1.76</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23436,7 +23436,7 @@
         <v>1.25</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -23636,10 +23636,10 @@
         <v>0.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24042,10 +24042,10 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT117" t="n">
         <v>1.59</v>
@@ -24448,7 +24448,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT118" t="n">
         <v>0.8100000000000001</v>
@@ -24654,7 +24654,7 @@
         <v>2.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU119" t="n">
         <v>1.87</v>
@@ -25057,10 +25057,10 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU121" t="n">
         <v>1.35</v>
@@ -25263,7 +25263,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU122" t="n">
         <v>1.76</v>
@@ -25666,7 +25666,7 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT124" t="n">
         <v>0.88</v>
@@ -25869,10 +25869,10 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26275,10 +26275,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26478,10 +26478,10 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26681,10 +26681,10 @@
         <v>1.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU129" t="n">
         <v>1.79</v>
@@ -26884,7 +26884,7 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT130" t="n">
         <v>0.8100000000000001</v>
@@ -27293,7 +27293,7 @@
         <v>1.25</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -27496,7 +27496,7 @@
         <v>1.59</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -27696,7 +27696,7 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT134" t="n">
         <v>1.12</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU135" t="n">
         <v>2.25</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT136" t="n">
         <v>1.18</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT138" t="n">
         <v>1.59</v>
@@ -28711,10 +28711,10 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -28917,7 +28917,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29120,7 +29120,7 @@
         <v>1.25</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29726,10 +29726,10 @@
         <v>0.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -29929,10 +29929,10 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU145" t="n">
         <v>1.73</v>
@@ -30132,7 +30132,7 @@
         <v>0.44</v>
       </c>
       <c r="AS146" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT146" t="n">
         <v>0.8100000000000001</v>
@@ -30335,10 +30335,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU147" t="n">
         <v>1.07</v>
@@ -30541,7 +30541,7 @@
         <v>1.82</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU148" t="n">
         <v>2.01</v>
@@ -30947,7 +30947,7 @@
         <v>1.25</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU150" t="n">
         <v>1.3</v>
@@ -31147,10 +31147,10 @@
         <v>1.56</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU151" t="n">
         <v>2.19</v>
@@ -31350,7 +31350,7 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT152" t="n">
         <v>0.88</v>
@@ -31553,10 +31553,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -31759,7 +31759,7 @@
         <v>1.59</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31959,7 +31959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT155" t="n">
         <v>1.18</v>
@@ -32368,7 +32368,7 @@
         <v>2.76</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32771,7 +32771,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT159" t="n">
         <v>2</v>
@@ -32977,7 +32977,7 @@
         <v>1.76</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -33177,7 +33177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT161" t="n">
         <v>0.88</v>
@@ -33583,7 +33583,7 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT163" t="n">
         <v>1.12</v>
@@ -33989,10 +33989,10 @@
         <v>2.8</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -34195,7 +34195,7 @@
         <v>2.29</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34395,7 +34395,7 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT167" t="n">
         <v>0.88</v>
@@ -34598,10 +34598,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34804,7 +34804,7 @@
         <v>1.76</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU169" t="n">
         <v>1.68</v>
@@ -35004,10 +35004,10 @@
         <v>1.4</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -35413,7 +35413,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35816,10 +35816,10 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -36019,7 +36019,7 @@
         <v>0.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT175" t="n">
         <v>0.88</v>
@@ -36222,10 +36222,10 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36628,10 +36628,10 @@
         <v>0.82</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU178" t="n">
         <v>1.52</v>
@@ -36831,7 +36831,7 @@
         <v>0.27</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT179" t="n">
         <v>0.71</v>
@@ -37037,7 +37037,7 @@
         <v>2.29</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37237,10 +37237,10 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU181" t="n">
         <v>1.62</v>
@@ -37440,10 +37440,10 @@
         <v>2.82</v>
       </c>
       <c r="AS182" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -37646,7 +37646,7 @@
         <v>1.82</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -38049,7 +38049,7 @@
         <v>1.09</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT185" t="n">
         <v>1.12</v>
@@ -38255,7 +38255,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -38658,7 +38658,7 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT188" t="n">
         <v>0.8100000000000001</v>
@@ -38864,7 +38864,7 @@
         <v>1.25</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39064,7 +39064,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT190" t="n">
         <v>1.59</v>
@@ -39267,10 +39267,10 @@
         <v>2</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU191" t="n">
         <v>1.49</v>
@@ -39876,10 +39876,10 @@
         <v>0.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40079,10 +40079,10 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,10 +40282,10 @@
         <v>1.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40688,7 +40688,7 @@
         <v>0.33</v>
       </c>
       <c r="AS198" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT198" t="n">
         <v>0.71</v>
@@ -40891,10 +40891,10 @@
         <v>0.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU199" t="n">
         <v>1.3</v>
@@ -41097,7 +41097,7 @@
         <v>1.82</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU200" t="n">
         <v>1.95</v>
@@ -41297,10 +41297,10 @@
         <v>0.42</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU201" t="n">
         <v>2.07</v>
@@ -41500,7 +41500,7 @@
         <v>0.58</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT202" t="n">
         <v>0.8100000000000001</v>
@@ -42518,7 +42518,7 @@
         <v>2.76</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU207" t="n">
         <v>2.44</v>
@@ -42718,7 +42718,7 @@
         <v>2.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT208" t="n">
         <v>2</v>
@@ -42924,7 +42924,7 @@
         <v>1.59</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU209" t="n">
         <v>1.31</v>
@@ -43124,10 +43124,10 @@
         <v>0.23</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU210" t="n">
         <v>2</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT211" t="n">
         <v>1.12</v>
@@ -43533,7 +43533,7 @@
         <v>1.76</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43733,10 +43733,10 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU213" t="n">
         <v>1.36</v>
@@ -44142,7 +44142,7 @@
         <v>1.25</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU215" t="n">
         <v>1.66</v>
@@ -44342,10 +44342,10 @@
         <v>2.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -44545,7 +44545,7 @@
         <v>1.31</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT217" t="n">
         <v>1.18</v>
@@ -44951,10 +44951,10 @@
         <v>1.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU219" t="n">
         <v>1.09</v>
@@ -45154,10 +45154,10 @@
         <v>0.54</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU220" t="n">
         <v>1.44</v>
@@ -45357,7 +45357,7 @@
         <v>0.85</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT221" t="n">
         <v>0.88</v>
@@ -45969,7 +45969,7 @@
         <v>1.25</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU224" t="n">
         <v>1.29</v>
@@ -46372,7 +46372,7 @@
         <v>0.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT226" t="n">
         <v>0.71</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT227" t="n">
         <v>1.18</v>
@@ -46781,7 +46781,7 @@
         <v>1.25</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU228" t="n">
         <v>1.64</v>
@@ -46981,10 +46981,10 @@
         <v>0.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU229" t="n">
         <v>1.32</v>
@@ -47187,7 +47187,7 @@
         <v>1.76</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU230" t="n">
         <v>1.74</v>
@@ -47387,10 +47387,10 @@
         <v>0.93</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU231" t="n">
         <v>1.45</v>
@@ -47590,7 +47590,7 @@
         <v>1.71</v>
       </c>
       <c r="AS232" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT232" t="n">
         <v>1.59</v>
@@ -47796,7 +47796,7 @@
         <v>1.82</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU233" t="n">
         <v>1.89</v>
@@ -47996,7 +47996,7 @@
         <v>0.71</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT234" t="n">
         <v>0.88</v>
@@ -48202,7 +48202,7 @@
         <v>1.59</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU235" t="n">
         <v>1.23</v>
@@ -48608,7 +48608,7 @@
         <v>2.29</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU237" t="n">
         <v>1.65</v>
@@ -48808,10 +48808,10 @@
         <v>2.21</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU238" t="n">
         <v>1.41</v>
@@ -49417,7 +49417,7 @@
         <v>2.21</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT241" t="n">
         <v>2</v>
@@ -50026,7 +50026,7 @@
         <v>1.07</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT244" t="n">
         <v>1.12</v>
@@ -50229,10 +50229,10 @@
         <v>0.53</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU245" t="n">
         <v>1.46</v>
@@ -50435,7 +50435,7 @@
         <v>2.29</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AU246" t="n">
         <v>1.72</v>
@@ -50638,7 +50638,7 @@
         <v>2.76</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AU247" t="n">
         <v>2.49</v>
@@ -50838,10 +50838,10 @@
         <v>0.4</v>
       </c>
       <c r="AS248" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU248" t="n">
         <v>1.33</v>
@@ -51041,7 +51041,7 @@
         <v>2.07</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AT249" t="n">
         <v>2</v>
@@ -51244,10 +51244,10 @@
         <v>0.67</v>
       </c>
       <c r="AS250" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="AU250" t="n">
         <v>1.32</v>
@@ -51650,10 +51650,10 @@
         <v>1.4</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AU252" t="n">
         <v>1.42</v>
@@ -51853,10 +51853,10 @@
         <v>2.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AT253" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AU253" t="n">
         <v>2.02</v>
@@ -52056,7 +52056,7 @@
         <v>0.67</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT254" t="n">
         <v>0.8100000000000001</v>
@@ -52465,7 +52465,7 @@
         <v>1.25</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU256" t="n">
         <v>1.27</v>
@@ -53680,10 +53680,10 @@
         <v>0.44</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU262" t="n">
         <v>1.42</v>
@@ -53886,7 +53886,7 @@
         <v>1.59</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AU263" t="n">
         <v>1.23</v>
@@ -54289,7 +54289,7 @@
         <v>0.88</v>
       </c>
       <c r="AS265" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT265" t="n">
         <v>0.88</v>
@@ -54344,6 +54344,1630 @@
       </c>
       <c r="BK265" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5893368</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E266" s="2" t="n">
+        <v>45053.4375</v>
+      </c>
+      <c r="F266" t="n">
+        <v>4</v>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2</v>
+      </c>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q266" t="n">
+        <v>7</v>
+      </c>
+      <c r="R266" t="n">
+        <v>6</v>
+      </c>
+      <c r="S266" t="n">
+        <v>13</v>
+      </c>
+      <c r="T266" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U266" t="n">
+        <v>2</v>
+      </c>
+      <c r="V266" t="n">
+        <v>4</v>
+      </c>
+      <c r="W266" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X266" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5893367</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="n">
+        <v>45053.60416666666</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4</v>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>2</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2</v>
+      </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>['12', '52']</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q267" t="n">
+        <v>2</v>
+      </c>
+      <c r="R267" t="n">
+        <v>3</v>
+      </c>
+      <c r="S267" t="n">
+        <v>5</v>
+      </c>
+      <c r="T267" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U267" t="n">
+        <v>2</v>
+      </c>
+      <c r="V267" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W267" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X267" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5947176</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E268" s="2" t="n">
+        <v>45054.45833333334</v>
+      </c>
+      <c r="F268" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2</v>
+      </c>
+      <c r="K268" t="n">
+        <v>3</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>4</v>
+      </c>
+      <c r="N268" t="n">
+        <v>5</v>
+      </c>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>['20', '43', '60', '85']</t>
+        </is>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>3</v>
+      </c>
+      <c r="S268" t="n">
+        <v>3</v>
+      </c>
+      <c r="T268" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W268" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X268" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5947175</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E269" s="2" t="n">
+        <v>45054.54166666666</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4</v>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I269" t="n">
+        <v>1</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q269" t="n">
+        <v>6</v>
+      </c>
+      <c r="R269" t="n">
+        <v>8</v>
+      </c>
+      <c r="S269" t="n">
+        <v>14</v>
+      </c>
+      <c r="T269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V269" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W269" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X269" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5947173</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="n">
+        <v>45054.58333333334</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4</v>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>2</v>
+      </c>
+      <c r="N270" t="n">
+        <v>2</v>
+      </c>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>['6', '72']</t>
+        </is>
+      </c>
+      <c r="Q270" t="n">
+        <v>3</v>
+      </c>
+      <c r="R270" t="n">
+        <v>13</v>
+      </c>
+      <c r="S270" t="n">
+        <v>16</v>
+      </c>
+      <c r="T270" t="n">
+        <v>11</v>
+      </c>
+      <c r="U270" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W270" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X270" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5947174</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F271" t="n">
+        <v>4</v>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I271" t="n">
+        <v>1</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>2</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>2</v>
+      </c>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>['2', '82']</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U271" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V271" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W271" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X271" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5893366</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E272" s="2" t="n">
+        <v>45055.55208333334</v>
+      </c>
+      <c r="F272" t="n">
+        <v>4</v>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>2</v>
+      </c>
+      <c r="K272" t="n">
+        <v>3</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="n">
+        <v>2</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3</v>
+      </c>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>['15', '30']</t>
+        </is>
+      </c>
+      <c r="Q272" t="n">
+        <v>7</v>
+      </c>
+      <c r="R272" t="n">
+        <v>2</v>
+      </c>
+      <c r="S272" t="n">
+        <v>9</v>
+      </c>
+      <c r="T272" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U272" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V272" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X272" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5893365</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="n">
+        <v>45055.55208333334</v>
+      </c>
+      <c r="F273" t="n">
+        <v>4</v>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>2</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>2</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>2</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>['5', '12']</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q273" t="n">
+        <v>2</v>
+      </c>
+      <c r="R273" t="n">
+        <v>2</v>
+      </c>
+      <c r="S273" t="n">
+        <v>4</v>
+      </c>
+      <c r="T273" t="n">
+        <v>0</v>
+      </c>
+      <c r="U273" t="n">
+        <v>0</v>
+      </c>
+      <c r="V273" t="n">
+        <v>0</v>
+      </c>
+      <c r="W273" t="n">
+        <v>0</v>
+      </c>
+      <c r="X273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -55343,22 +55343,22 @@
         <v>2.75</v>
       </c>
       <c r="BF270" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG270" t="n">
+        <v>14</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ270" t="n">
         <v>12</v>
       </c>
-      <c r="BH270" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI270" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ270" t="n">
-        <v>9</v>
-      </c>
       <c r="BK270" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
@@ -55423,13 +55423,13 @@
         </is>
       </c>
       <c r="Q271" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R271" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S271" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T271" t="n">
         <v>1.83</v>
@@ -55546,22 +55546,22 @@
         <v>3.8</v>
       </c>
       <c r="BF271" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH271" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ271" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK271" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -55626,13 +55626,13 @@
         </is>
       </c>
       <c r="Q272" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S272" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="T272" t="n">
         <v>2.45</v>
@@ -55749,22 +55749,22 @@
         <v>2.85</v>
       </c>
       <c r="BF272" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG272" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH272" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BI272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ272" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BK272" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -55829,13 +55829,13 @@
         </is>
       </c>
       <c r="Q273" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R273" t="n">
         <v>2</v>
       </c>
       <c r="S273" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T273" t="n">
         <v>0</v>
@@ -55952,22 +55952,22 @@
         <v>0</v>
       </c>
       <c r="BF273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG273" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH273" t="n">
         <v>4</v>
       </c>
-      <c r="BH273" t="n">
-        <v>0</v>
-      </c>
       <c r="BI273" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ273" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BK273" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK273"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.47</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT4" t="n">
         <v>2.18</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT6" t="n">
         <v>0.9399999999999999</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.29</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT10" t="n">
         <v>2</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT12" t="n">
         <v>0.5600000000000001</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT13" t="n">
         <v>0.59</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0.76</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.29</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.11</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU18" t="n">
         <v>1</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT20" t="n">
         <v>2.18</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU21" t="n">
         <v>1.81</v>
@@ -5369,7 +5369,7 @@
         <v>1.47</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5600000000000001</v>
@@ -5978,7 +5978,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6181,7 +6181,7 @@
         <v>1.33</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -6584,7 +6584,7 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT30" t="n">
         <v>2.18</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU32" t="n">
         <v>1.68</v>
@@ -7196,7 +7196,7 @@
         <v>1.47</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU34" t="n">
         <v>1.75</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT36" t="n">
         <v>0.59</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT37" t="n">
         <v>0.67</v>
@@ -8211,7 +8211,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8411,10 +8411,10 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU39" t="n">
         <v>1.55</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT47" t="n">
         <v>0.9399999999999999</v>
@@ -10241,7 +10241,7 @@
         <v>1.76</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -10444,7 +10444,7 @@
         <v>2.29</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10647,7 +10647,7 @@
         <v>1.11</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU51" t="n">
         <v>1.68</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT52" t="n">
         <v>0.9399999999999999</v>
@@ -11456,10 +11456,10 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -11662,7 +11662,7 @@
         <v>0.76</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU55" t="n">
         <v>0.8</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT57" t="n">
         <v>2.18</v>
@@ -12271,7 +12271,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT59" t="n">
         <v>1.59</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -13489,7 +13489,7 @@
         <v>1.33</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU64" t="n">
         <v>1.35</v>
@@ -14095,10 +14095,10 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14298,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT68" t="n">
         <v>2.65</v>
@@ -14501,10 +14501,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14704,10 +14704,10 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU70" t="n">
         <v>1.77</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU71" t="n">
         <v>1.87</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT72" t="n">
         <v>2</v>
@@ -15316,7 +15316,7 @@
         <v>2.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT74" t="n">
         <v>2.18</v>
@@ -15722,7 +15722,7 @@
         <v>1.29</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU75" t="n">
         <v>1.33</v>
@@ -15925,7 +15925,7 @@
         <v>1.18</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16125,7 +16125,7 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT77" t="n">
         <v>1.59</v>
@@ -16331,7 +16331,7 @@
         <v>1.33</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU78" t="n">
         <v>1.36</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT79" t="n">
         <v>0.59</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,10 +17343,10 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17955,7 +17955,7 @@
         <v>1.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU86" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>2.29</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU89" t="n">
         <v>1.94</v>
@@ -18764,10 +18764,10 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU90" t="n">
         <v>2.78</v>
@@ -18967,7 +18967,7 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT91" t="n">
         <v>2</v>
@@ -19170,10 +19170,10 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU92" t="n">
         <v>1.38</v>
@@ -19373,7 +19373,7 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT93" t="n">
         <v>0.67</v>
@@ -19579,7 +19579,7 @@
         <v>1.76</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19779,7 +19779,7 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT95" t="n">
         <v>0.5600000000000001</v>
@@ -19985,7 +19985,7 @@
         <v>1.11</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20388,10 +20388,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20794,10 +20794,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT101" t="n">
         <v>0.9399999999999999</v>
@@ -21200,10 +21200,10 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.21</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU103" t="n">
         <v>1.11</v>
@@ -21606,10 +21606,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22012,10 +22012,10 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -22215,7 +22215,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT107" t="n">
         <v>0.67</v>
@@ -22621,10 +22621,10 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -22827,7 +22827,7 @@
         <v>0.76</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23030,7 +23030,7 @@
         <v>1.76</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23230,10 +23230,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT113" t="n">
         <v>0.59</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT117" t="n">
         <v>1.59</v>
@@ -24448,10 +24448,10 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24854,7 +24854,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT120" t="n">
         <v>1.59</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT122" t="n">
         <v>2.65</v>
@@ -25466,7 +25466,7 @@
         <v>1.76</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25666,10 +25666,10 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -26072,10 +26072,10 @@
         <v>0.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26278,7 +26278,7 @@
         <v>1.33</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26681,10 +26681,10 @@
         <v>1.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU129" t="n">
         <v>1.79</v>
@@ -26887,7 +26887,7 @@
         <v>1.47</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27090,7 +27090,7 @@
         <v>2.29</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27290,7 +27290,7 @@
         <v>0.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT132" t="n">
         <v>0.67</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT133" t="n">
         <v>2.65</v>
@@ -27699,7 +27699,7 @@
         <v>1.18</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -27899,7 +27899,7 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT135" t="n">
         <v>0.9399999999999999</v>
@@ -28105,7 +28105,7 @@
         <v>0.76</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28308,7 +28308,7 @@
         <v>1.76</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT140" t="n">
         <v>0.59</v>
@@ -29117,10 +29117,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29320,10 +29320,10 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29523,7 +29523,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT143" t="n">
         <v>2</v>
@@ -29726,7 +29726,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT144" t="n">
         <v>0.67</v>
@@ -29929,7 +29929,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT145" t="n">
         <v>2.65</v>
@@ -30135,7 +30135,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU146" t="n">
         <v>1.46</v>
@@ -30538,7 +30538,7 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT148" t="n">
         <v>0.9399999999999999</v>
@@ -30744,7 +30744,7 @@
         <v>2.29</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -30944,7 +30944,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT150" t="n">
         <v>2.65</v>
@@ -31147,10 +31147,10 @@
         <v>1.56</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU151" t="n">
         <v>2.19</v>
@@ -31350,10 +31350,10 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31756,7 +31756,7 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT154" t="n">
         <v>0.5600000000000001</v>
@@ -31962,7 +31962,7 @@
         <v>1.29</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32162,10 +32162,10 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32365,10 +32365,10 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32568,7 +32568,7 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT158" t="n">
         <v>1.59</v>
@@ -33180,7 +33180,7 @@
         <v>0.76</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33380,10 +33380,10 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33583,10 +33583,10 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,10 +33786,10 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU164" t="n">
         <v>2.01</v>
@@ -34395,10 +34395,10 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU167" t="n">
         <v>2.21</v>
@@ -35007,7 +35007,7 @@
         <v>1.18</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -35207,10 +35207,10 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU171" t="n">
         <v>1.39</v>
@@ -35410,7 +35410,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT172" t="n">
         <v>0.5600000000000001</v>
@@ -35613,7 +35613,7 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT173" t="n">
         <v>1.59</v>
@@ -35819,7 +35819,7 @@
         <v>1.33</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU174" t="n">
         <v>1.5</v>
@@ -36022,7 +36022,7 @@
         <v>1.29</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>2.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT177" t="n">
         <v>2</v>
@@ -36834,7 +36834,7 @@
         <v>1.47</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37237,7 +37237,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT181" t="n">
         <v>0.59</v>
@@ -37643,7 +37643,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT183" t="n">
         <v>0.67</v>
@@ -37849,7 +37849,7 @@
         <v>1.76</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU184" t="n">
         <v>1.69</v>
@@ -38049,10 +38049,10 @@
         <v>1.09</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38252,10 +38252,10 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -38455,10 +38455,10 @@
         <v>1.27</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU187" t="n">
         <v>1.2</v>
@@ -38661,7 +38661,7 @@
         <v>0.76</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU188" t="n">
         <v>1.23</v>
@@ -38861,10 +38861,10 @@
         <v>1.55</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU189" t="n">
         <v>1.7</v>
@@ -39470,10 +39470,10 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -39673,7 +39673,7 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT193" t="n">
         <v>2</v>
@@ -39876,7 +39876,7 @@
         <v>0.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT194" t="n">
         <v>0.5600000000000001</v>
@@ -40285,7 +40285,7 @@
         <v>1.47</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40488,7 +40488,7 @@
         <v>1.76</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -40691,7 +40691,7 @@
         <v>1.11</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT200" t="n">
         <v>2.65</v>
@@ -41297,7 +41297,7 @@
         <v>0.42</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT201" t="n">
         <v>0.59</v>
@@ -41503,7 +41503,7 @@
         <v>1.29</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU202" t="n">
         <v>1.46</v>
@@ -41906,10 +41906,10 @@
         <v>0.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU204" t="n">
         <v>1.65</v>
@@ -42109,10 +42109,10 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42312,10 +42312,10 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU206" t="n">
         <v>1.26</v>
@@ -42515,10 +42515,10 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU207" t="n">
         <v>2.44</v>
@@ -42921,7 +42921,7 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT209" t="n">
         <v>2.18</v>
@@ -43124,7 +43124,7 @@
         <v>0.23</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT210" t="n">
         <v>0.5600000000000001</v>
@@ -43330,7 +43330,7 @@
         <v>0.76</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU211" t="n">
         <v>1.29</v>
@@ -43736,7 +43736,7 @@
         <v>1.11</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU213" t="n">
         <v>1.36</v>
@@ -43936,10 +43936,10 @@
         <v>0.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU214" t="n">
         <v>1.88</v>
@@ -44139,7 +44139,7 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT215" t="n">
         <v>0.9399999999999999</v>
@@ -44545,10 +44545,10 @@
         <v>1.31</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -44748,10 +44748,10 @@
         <v>0.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU218" t="n">
         <v>1.26</v>
@@ -44954,7 +44954,7 @@
         <v>1.18</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU219" t="n">
         <v>1.09</v>
@@ -45360,7 +45360,7 @@
         <v>1.47</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU221" t="n">
         <v>1.4</v>
@@ -45560,10 +45560,10 @@
         <v>0.77</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU222" t="n">
         <v>2.44</v>
@@ -45966,7 +45966,7 @@
         <v>2.15</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT224" t="n">
         <v>2.18</v>
@@ -46169,7 +46169,7 @@
         <v>1.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT225" t="n">
         <v>1.59</v>
@@ -46375,7 +46375,7 @@
         <v>1.33</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -46575,10 +46575,10 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU227" t="n">
         <v>2.06</v>
@@ -46778,7 +46778,7 @@
         <v>2.71</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT228" t="n">
         <v>2.65</v>
@@ -47793,10 +47793,10 @@
         <v>1.43</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU233" t="n">
         <v>1.89</v>
@@ -47999,7 +47999,7 @@
         <v>1.18</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU234" t="n">
         <v>1.1</v>
@@ -48199,7 +48199,7 @@
         <v>0.57</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT235" t="n">
         <v>0.67</v>
@@ -48402,10 +48402,10 @@
         <v>1.14</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU236" t="n">
         <v>2.49</v>
@@ -48608,7 +48608,7 @@
         <v>2.29</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU237" t="n">
         <v>1.65</v>
@@ -49011,10 +49011,10 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU239" t="n">
         <v>1.7</v>
@@ -49214,10 +49214,10 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU240" t="n">
         <v>1.28</v>
@@ -49417,7 +49417,7 @@
         <v>2.21</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT241" t="n">
         <v>2</v>
@@ -49620,10 +49620,10 @@
         <v>0.73</v>
       </c>
       <c r="AS242" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU242" t="n">
         <v>1.66</v>
@@ -49823,10 +49823,10 @@
         <v>0.4</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU243" t="n">
         <v>1.22</v>
@@ -50029,7 +50029,7 @@
         <v>1.47</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50435,7 +50435,7 @@
         <v>2.29</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU246" t="n">
         <v>1.72</v>
@@ -50635,7 +50635,7 @@
         <v>2.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT247" t="n">
         <v>2.18</v>
@@ -51041,7 +51041,7 @@
         <v>2.07</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT249" t="n">
         <v>2</v>
@@ -51450,7 +51450,7 @@
         <v>1.76</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU251" t="n">
         <v>1.76</v>
@@ -51653,7 +51653,7 @@
         <v>1.29</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU252" t="n">
         <v>1.42</v>
@@ -51853,7 +51853,7 @@
         <v>2.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT253" t="n">
         <v>2.65</v>
@@ -52059,7 +52059,7 @@
         <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AU254" t="n">
         <v>1.09</v>
@@ -52259,10 +52259,10 @@
         <v>0.93</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AU255" t="n">
         <v>1.63</v>
@@ -52462,7 +52462,7 @@
         <v>0.87</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AT256" t="n">
         <v>0.9399999999999999</v>
@@ -52665,7 +52665,7 @@
         <v>1.8</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT257" t="n">
         <v>1.59</v>
@@ -52871,7 +52871,7 @@
         <v>1.76</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AU258" t="n">
         <v>1.7</v>
@@ -53074,7 +53074,7 @@
         <v>2.29</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU259" t="n">
         <v>1.72</v>
@@ -53274,7 +53274,7 @@
         <v>1.69</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT260" t="n">
         <v>1.59</v>
@@ -53477,10 +53477,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS261" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU261" t="n">
         <v>1.59</v>
@@ -53883,7 +53883,7 @@
         <v>0.5</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AT263" t="n">
         <v>0.67</v>
@@ -54086,7 +54086,7 @@
         <v>1.94</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="AT264" t="n">
         <v>2</v>
@@ -54292,7 +54292,7 @@
         <v>1.11</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU265" t="n">
         <v>1.33</v>
@@ -55101,10 +55101,10 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AU269" t="n">
         <v>1.63</v>
@@ -55507,10 +55507,10 @@
         <v>1.25</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU271" t="n">
         <v>1.96</v>
@@ -55968,6 +55968,1630 @@
       </c>
       <c r="BK273" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5947179</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45059.47916666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>4</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>4</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['12', '50', '71', '81']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>6</v>
+      </c>
+      <c r="R274" t="n">
+        <v>2</v>
+      </c>
+      <c r="S274" t="n">
+        <v>8</v>
+      </c>
+      <c r="T274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X274" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5947180</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45059.5625</v>
+      </c>
+      <c r="F275" t="n">
+        <v>5</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['9', '90+4']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>12</v>
+      </c>
+      <c r="R275" t="n">
+        <v>4</v>
+      </c>
+      <c r="S275" t="n">
+        <v>16</v>
+      </c>
+      <c r="T275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V275" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X275" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>19</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5947178</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45059.64583333334</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>2</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>['73', '85']</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>10</v>
+      </c>
+      <c r="R276" t="n">
+        <v>2</v>
+      </c>
+      <c r="S276" t="n">
+        <v>12</v>
+      </c>
+      <c r="T276" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U276" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V276" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X276" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5893370</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45060.52083333334</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2</v>
+      </c>
+      <c r="L277" t="n">
+        <v>2</v>
+      </c>
+      <c r="M277" t="n">
+        <v>2</v>
+      </c>
+      <c r="N277" t="n">
+        <v>4</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['42', '90+4']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>['18', '80']</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>4</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1</v>
+      </c>
+      <c r="S277" t="n">
+        <v>5</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5947177</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45060.60416666666</v>
+      </c>
+      <c r="F278" t="n">
+        <v>5</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['41', '56']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="n">
+        <v>4</v>
+      </c>
+      <c r="S278" t="n">
+        <v>4</v>
+      </c>
+      <c r="T278" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U278" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V278" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X278" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5893372</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45061.54166666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>2</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['60', '87']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>5</v>
+      </c>
+      <c r="S279" t="n">
+        <v>8</v>
+      </c>
+      <c r="T279" t="n">
+        <v>0</v>
+      </c>
+      <c r="U279" t="n">
+        <v>0</v>
+      </c>
+      <c r="V279" t="n">
+        <v>0</v>
+      </c>
+      <c r="W279" t="n">
+        <v>0</v>
+      </c>
+      <c r="X279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5893371</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45061.54166666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>5</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>6</v>
+      </c>
+      <c r="R280" t="n">
+        <v>3</v>
+      </c>
+      <c r="S280" t="n">
+        <v>9</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U280" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5893369</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45061.54166666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>2</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>3</v>
+      </c>
+      <c r="L281" t="n">
+        <v>3</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>5</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['17', '27', '72']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['24', '53']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>7</v>
+      </c>
+      <c r="R281" t="n">
+        <v>2</v>
+      </c>
+      <c r="S281" t="n">
+        <v>9</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U281" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V281" t="n">
+        <v>6</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT16" t="n">
         <v>0.67</v>
@@ -4963,7 +4963,7 @@
         <v>1.18</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU22" t="n">
         <v>0.95</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT27" t="n">
         <v>1.22</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT46" t="n">
         <v>1.59</v>
@@ -12877,7 +12877,7 @@
         <v>1.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -14301,7 +14301,7 @@
         <v>1.83</v>
       </c>
       <c r="AT68" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU68" t="n">
         <v>1.94</v>
@@ -15719,7 +15719,7 @@
         <v>1.8</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT75" t="n">
         <v>1.11</v>
@@ -16940,7 +16940,7 @@
         <v>1.76</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU81" t="n">
         <v>1.49</v>
@@ -17952,7 +17952,7 @@
         <v>0.83</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT86" t="n">
         <v>0.89</v>
@@ -20594,7 +20594,7 @@
         <v>0.76</v>
       </c>
       <c r="AT99" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU99" t="n">
         <v>1.07</v>
@@ -24042,10 +24042,10 @@
         <v>2.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU116" t="n">
         <v>1.44</v>
@@ -24654,7 +24654,7 @@
         <v>2.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU119" t="n">
         <v>1.87</v>
@@ -25057,7 +25057,7 @@
         <v>0.57</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT121" t="n">
         <v>0.59</v>
@@ -25263,7 +25263,7 @@
         <v>1.06</v>
       </c>
       <c r="AT122" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU122" t="n">
         <v>1.76</v>
@@ -27496,7 +27496,7 @@
         <v>1.56</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU133" t="n">
         <v>1.46</v>
@@ -28711,7 +28711,7 @@
         <v>0.13</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT139" t="n">
         <v>0.5600000000000001</v>
@@ -29932,7 +29932,7 @@
         <v>2.44</v>
       </c>
       <c r="AT145" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU145" t="n">
         <v>1.73</v>
@@ -30947,7 +30947,7 @@
         <v>1.24</v>
       </c>
       <c r="AT150" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU150" t="n">
         <v>1.3</v>
@@ -31959,7 +31959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT155" t="n">
         <v>1.11</v>
@@ -33992,7 +33992,7 @@
         <v>1.47</v>
       </c>
       <c r="AT165" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU165" t="n">
         <v>1.55</v>
@@ -36019,7 +36019,7 @@
         <v>0.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT175" t="n">
         <v>0.82</v>
@@ -37443,7 +37443,7 @@
         <v>1.11</v>
       </c>
       <c r="AT182" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU182" t="n">
         <v>1.41</v>
@@ -39267,7 +39267,7 @@
         <v>2</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT191" t="n">
         <v>2.18</v>
@@ -41097,7 +41097,7 @@
         <v>1.89</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU200" t="n">
         <v>1.95</v>
@@ -41500,7 +41500,7 @@
         <v>0.58</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT202" t="n">
         <v>0.82</v>
@@ -44345,7 +44345,7 @@
         <v>1.33</v>
       </c>
       <c r="AT216" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU216" t="n">
         <v>1.49</v>
@@ -45154,7 +45154,7 @@
         <v>0.54</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT220" t="n">
         <v>0.67</v>
@@ -46781,7 +46781,7 @@
         <v>1.35</v>
       </c>
       <c r="AT228" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU228" t="n">
         <v>1.64</v>
@@ -47387,7 +47387,7 @@
         <v>0.93</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT231" t="n">
         <v>0.9399999999999999</v>
@@ -51650,7 +51650,7 @@
         <v>1.4</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT252" t="n">
         <v>1.22</v>
@@ -51856,7 +51856,7 @@
         <v>1.83</v>
       </c>
       <c r="AT253" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU253" t="n">
         <v>2.02</v>
@@ -54898,7 +54898,7 @@
         <v>2.13</v>
       </c>
       <c r="AS268" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT268" t="n">
         <v>2.18</v>
@@ -55307,7 +55307,7 @@
         <v>1.47</v>
       </c>
       <c r="AT270" t="n">
-        <v>2.65</v>
+        <v>2.56</v>
       </c>
       <c r="AU270" t="n">
         <v>1.41</v>
@@ -57592,6 +57592,209 @@
       </c>
       <c r="BK281" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5947181</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45066.45833333334</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>1</v>
+      </c>
+      <c r="R282" t="n">
+        <v>13</v>
+      </c>
+      <c r="S282" t="n">
+        <v>14</v>
+      </c>
+      <c r="T282" t="n">
+        <v>7</v>
+      </c>
+      <c r="U282" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V282" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK282"/>
+  <dimension ref="A1:BK289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
         <v>1.11</v>
@@ -1106,7 +1106,7 @@
         <v>1.18</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>2.44</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>0.89</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>3</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>2.78</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU13" t="n">
         <v>2.22</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT15" t="n">
         <v>1.22</v>
@@ -3745,7 +3745,7 @@
         <v>1.28</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT18" t="n">
         <v>1.11</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT19" t="n">
         <v>1.06</v>
@@ -4557,7 +4557,7 @@
         <v>1.83</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>2.44</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU21" t="n">
         <v>1.81</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU23" t="n">
         <v>2.29</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT24" t="n">
         <v>0.89</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU25" t="n">
         <v>1.59</v>
@@ -6584,10 +6584,10 @@
         <v>2</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU30" t="n">
         <v>1.51</v>
@@ -6787,10 +6787,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU31" t="n">
         <v>0.74</v>
@@ -6993,7 +6993,7 @@
         <v>1.56</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU32" t="n">
         <v>1.68</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT33" t="n">
         <v>1.06</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU36" t="n">
         <v>0.95</v>
@@ -8008,7 +8008,7 @@
         <v>2.44</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU37" t="n">
         <v>2.19</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT38" t="n">
         <v>0.89</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.11</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU40" t="n">
         <v>1.4</v>
@@ -9629,10 +9629,10 @@
         <v>1.33</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT45" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU45" t="n">
         <v>0.7</v>
@@ -9835,7 +9835,7 @@
         <v>1.28</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU46" t="n">
         <v>1.38</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU48" t="n">
         <v>1.54</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU49" t="n">
         <v>2.07</v>
@@ -10644,7 +10644,7 @@
         <v>0.67</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT50" t="n">
         <v>1.06</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT52" t="n">
         <v>0.9399999999999999</v>
@@ -11253,10 +11253,10 @@
         <v>0.5</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU53" t="n">
         <v>1.45</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT54" t="n">
         <v>1.22</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT55" t="n">
         <v>1.11</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU56" t="n">
         <v>1.65</v>
@@ -12068,7 +12068,7 @@
         <v>1.35</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU57" t="n">
         <v>2.14</v>
@@ -12474,7 +12474,7 @@
         <v>1.56</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU59" t="n">
         <v>1.5</v>
@@ -12880,7 +12880,7 @@
         <v>1.28</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU61" t="n">
         <v>1.31</v>
@@ -13080,10 +13080,10 @@
         <v>0.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU62" t="n">
         <v>1.55</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT63" t="n">
         <v>0.9399999999999999</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5600000000000001</v>
@@ -13892,10 +13892,10 @@
         <v>0.33</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU66" t="n">
         <v>1.27</v>
@@ -14504,7 +14504,7 @@
         <v>2.44</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU69" t="n">
         <v>2.05</v>
@@ -14704,7 +14704,7 @@
         <v>0.8</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>0.89</v>
@@ -14910,7 +14910,7 @@
         <v>1.35</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU71" t="n">
         <v>1.87</v>
@@ -15113,7 +15113,7 @@
         <v>1.56</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT73" t="n">
         <v>1.11</v>
@@ -15519,7 +15519,7 @@
         <v>2.78</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU74" t="n">
         <v>2.65</v>
@@ -16125,10 +16125,10 @@
         <v>1.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU77" t="n">
         <v>1.1</v>
@@ -16534,7 +16534,7 @@
         <v>1.89</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU79" t="n">
         <v>2.01</v>
@@ -16734,10 +16734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU80" t="n">
         <v>0.96</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>2.56</v>
@@ -17346,7 +17346,7 @@
         <v>1.83</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU83" t="n">
         <v>1.58</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT84" t="n">
         <v>0.5600000000000001</v>
@@ -17749,7 +17749,7 @@
         <v>0.8</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT85" t="n">
         <v>0.9399999999999999</v>
@@ -18158,7 +18158,7 @@
         <v>1.18</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU87" t="n">
         <v>1.14</v>
@@ -18358,10 +18358,10 @@
         <v>2</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU88" t="n">
         <v>1.56</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
         <v>0.82</v>
@@ -18767,7 +18767,7 @@
         <v>2.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU90" t="n">
         <v>2.78</v>
@@ -18967,10 +18967,10 @@
         <v>2.17</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU91" t="n">
         <v>1.15</v>
@@ -19373,10 +19373,10 @@
         <v>0.4</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU93" t="n">
         <v>1.74</v>
@@ -19576,10 +19576,10 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU94" t="n">
         <v>1.41</v>
@@ -19982,7 +19982,7 @@
         <v>0.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT96" t="n">
         <v>1.11</v>
@@ -20188,7 +20188,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU97" t="n">
         <v>1.29</v>
@@ -20591,7 +20591,7 @@
         <v>2.33</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT99" t="n">
         <v>2.56</v>
@@ -21200,7 +21200,7 @@
         <v>1.71</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT102" t="n">
         <v>1.11</v>
@@ -21406,7 +21406,7 @@
         <v>1.18</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU103" t="n">
         <v>1.11</v>
@@ -21809,10 +21809,10 @@
         <v>1.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT105" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU105" t="n">
         <v>1.92</v>
@@ -22218,7 +22218,7 @@
         <v>2.78</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU107" t="n">
         <v>2.74</v>
@@ -22418,10 +22418,10 @@
         <v>2.29</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT108" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU108" t="n">
         <v>1.58</v>
@@ -22621,7 +22621,7 @@
         <v>1.14</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.06</v>
@@ -22824,10 +22824,10 @@
         <v>0.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU110" t="n">
         <v>1.06</v>
@@ -23027,7 +23027,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT111" t="n">
         <v>1.22</v>
@@ -23436,7 +23436,7 @@
         <v>1.35</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU113" t="n">
         <v>1.73</v>
@@ -23636,7 +23636,7 @@
         <v>0.71</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT114" t="n">
         <v>0.9399999999999999</v>
@@ -24248,7 +24248,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU117" t="n">
         <v>2.04</v>
@@ -24451,7 +24451,7 @@
         <v>1.83</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU118" t="n">
         <v>2.05</v>
@@ -24651,7 +24651,7 @@
         <v>2.6</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT119" t="n">
         <v>2.56</v>
@@ -24857,7 +24857,7 @@
         <v>1.89</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU120" t="n">
         <v>2.14</v>
@@ -25060,7 +25060,7 @@
         <v>1.28</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU121" t="n">
         <v>1.35</v>
@@ -25260,7 +25260,7 @@
         <v>2.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT122" t="n">
         <v>2.56</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>1.11</v>
@@ -25869,7 +25869,7 @@
         <v>0.14</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT125" t="n">
         <v>0.5600000000000001</v>
@@ -26075,7 +26075,7 @@
         <v>1.35</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU126" t="n">
         <v>1.81</v>
@@ -26478,10 +26478,10 @@
         <v>2</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU128" t="n">
         <v>1.46</v>
@@ -26884,10 +26884,10 @@
         <v>0.38</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU130" t="n">
         <v>1.54</v>
@@ -27087,7 +27087,7 @@
         <v>0.75</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT131" t="n">
         <v>0.89</v>
@@ -27290,10 +27290,10 @@
         <v>0.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT132" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU132" t="n">
         <v>1.25</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AS136" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT136" t="n">
         <v>1.11</v>
@@ -28305,7 +28305,7 @@
         <v>0.75</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
         <v>0.82</v>
@@ -28511,7 +28511,7 @@
         <v>1.33</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU138" t="n">
         <v>1.52</v>
@@ -28914,10 +28914,10 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU140" t="n">
         <v>1.67</v>
@@ -29323,7 +29323,7 @@
         <v>2.78</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU142" t="n">
         <v>2.72</v>
@@ -29526,7 +29526,7 @@
         <v>1.89</v>
       </c>
       <c r="AT143" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU143" t="n">
         <v>2.09</v>
@@ -29729,7 +29729,7 @@
         <v>1.83</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU144" t="n">
         <v>2.19</v>
@@ -30132,10 +30132,10 @@
         <v>0.44</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU146" t="n">
         <v>1.46</v>
@@ -30338,7 +30338,7 @@
         <v>1.18</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU147" t="n">
         <v>1.07</v>
@@ -30741,7 +30741,7 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT149" t="n">
         <v>1.06</v>
@@ -30944,7 +30944,7 @@
         <v>2.78</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT150" t="n">
         <v>2.56</v>
@@ -31553,10 +31553,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU153" t="n">
         <v>1.51</v>
@@ -32162,10 +32162,10 @@
         <v>0.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT156" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32571,7 +32571,7 @@
         <v>1.35</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU158" t="n">
         <v>1.75</v>
@@ -32774,7 +32774,7 @@
         <v>1.33</v>
       </c>
       <c r="AT159" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU159" t="n">
         <v>1.51</v>
@@ -32974,10 +32974,10 @@
         <v>2.11</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT160" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU160" t="n">
         <v>1.65</v>
@@ -33177,7 +33177,7 @@
         <v>0.67</v>
       </c>
       <c r="AS161" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT161" t="n">
         <v>0.82</v>
@@ -33380,10 +33380,10 @@
         <v>0.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU162" t="n">
         <v>1.24</v>
@@ -33789,7 +33789,7 @@
         <v>1.89</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU164" t="n">
         <v>2.01</v>
@@ -33989,7 +33989,7 @@
         <v>2.8</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT165" t="n">
         <v>2.56</v>
@@ -34192,10 +34192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU166" t="n">
         <v>1.73</v>
@@ -34598,10 +34598,10 @@
         <v>0.5</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -34801,7 +34801,7 @@
         <v>0.8</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT169" t="n">
         <v>0.9399999999999999</v>
@@ -35410,7 +35410,7 @@
         <v>0.1</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT172" t="n">
         <v>0.5600000000000001</v>
@@ -35616,7 +35616,7 @@
         <v>2.78</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU173" t="n">
         <v>2.68</v>
@@ -36222,10 +36222,10 @@
         <v>1.9</v>
       </c>
       <c r="AS176" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU176" t="n">
         <v>1.27</v>
@@ -36428,7 +36428,7 @@
         <v>1.35</v>
       </c>
       <c r="AT177" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU177" t="n">
         <v>1.79</v>
@@ -36831,10 +36831,10 @@
         <v>0.27</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU179" t="n">
         <v>1.42</v>
@@ -37034,7 +37034,7 @@
         <v>0.18</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT180" t="n">
         <v>0.5600000000000001</v>
@@ -37240,7 +37240,7 @@
         <v>2.44</v>
       </c>
       <c r="AT181" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU181" t="n">
         <v>1.62</v>
@@ -37440,7 +37440,7 @@
         <v>2.82</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT182" t="n">
         <v>2.56</v>
@@ -37646,7 +37646,7 @@
         <v>1.89</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU183" t="n">
         <v>1.98</v>
@@ -37846,7 +37846,7 @@
         <v>0.82</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT184" t="n">
         <v>0.89</v>
@@ -38252,7 +38252,7 @@
         <v>1.36</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT186" t="n">
         <v>1.22</v>
@@ -38455,7 +38455,7 @@
         <v>1.27</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT187" t="n">
         <v>1.11</v>
@@ -38658,10 +38658,10 @@
         <v>0.36</v>
       </c>
       <c r="AS188" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU188" t="n">
         <v>1.23</v>
@@ -39067,7 +39067,7 @@
         <v>1.18</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU190" t="n">
         <v>1.16</v>
@@ -39270,7 +39270,7 @@
         <v>1.28</v>
       </c>
       <c r="AT191" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU191" t="n">
         <v>1.49</v>
@@ -39676,7 +39676,7 @@
         <v>2.78</v>
       </c>
       <c r="AT193" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU193" t="n">
         <v>2.57</v>
@@ -40082,7 +40082,7 @@
         <v>1.33</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU195" t="n">
         <v>1.47</v>
@@ -40282,7 +40282,7 @@
         <v>1.5</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT196" t="n">
         <v>1.22</v>
@@ -40485,7 +40485,7 @@
         <v>1.08</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT197" t="n">
         <v>1.06</v>
@@ -40688,10 +40688,10 @@
         <v>0.33</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU198" t="n">
         <v>1.4</v>
@@ -40891,7 +40891,7 @@
         <v>0.75</v>
       </c>
       <c r="AS199" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT199" t="n">
         <v>0.9399999999999999</v>
@@ -41300,7 +41300,7 @@
         <v>1.83</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU201" t="n">
         <v>2.07</v>
@@ -41503,7 +41503,7 @@
         <v>1.28</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU202" t="n">
         <v>1.46</v>
@@ -41703,10 +41703,10 @@
         <v>1.75</v>
       </c>
       <c r="AS203" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU203" t="n">
         <v>1.76</v>
@@ -42109,7 +42109,7 @@
         <v>1.17</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT205" t="n">
         <v>1.11</v>
@@ -42312,7 +42312,7 @@
         <v>0.83</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT206" t="n">
         <v>0.82</v>
@@ -42721,7 +42721,7 @@
         <v>1.18</v>
       </c>
       <c r="AT208" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU208" t="n">
         <v>1.12</v>
@@ -42924,7 +42924,7 @@
         <v>1.56</v>
       </c>
       <c r="AT209" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU209" t="n">
         <v>1.31</v>
@@ -43327,7 +43327,7 @@
         <v>1</v>
       </c>
       <c r="AS211" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT211" t="n">
         <v>1.06</v>
@@ -43530,10 +43530,10 @@
         <v>0.46</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU212" t="n">
         <v>1.67</v>
@@ -43733,7 +43733,7 @@
         <v>1.46</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT213" t="n">
         <v>1.22</v>
@@ -43939,7 +43939,7 @@
         <v>1.89</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU214" t="n">
         <v>1.88</v>
@@ -44751,7 +44751,7 @@
         <v>1.56</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU218" t="n">
         <v>1.26</v>
@@ -45157,7 +45157,7 @@
         <v>1.28</v>
       </c>
       <c r="AT220" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU220" t="n">
         <v>1.44</v>
@@ -45357,7 +45357,7 @@
         <v>0.85</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT221" t="n">
         <v>0.82</v>
@@ -45763,10 +45763,10 @@
         <v>2.38</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT223" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU223" t="n">
         <v>1.71</v>
@@ -45966,10 +45966,10 @@
         <v>2.15</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT224" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU224" t="n">
         <v>1.29</v>
@@ -46169,10 +46169,10 @@
         <v>1.62</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU225" t="n">
         <v>1.77</v>
@@ -46375,7 +46375,7 @@
         <v>1.33</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU226" t="n">
         <v>1.45</v>
@@ -46981,10 +46981,10 @@
         <v>0.64</v>
       </c>
       <c r="AS229" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU229" t="n">
         <v>1.32</v>
@@ -47184,7 +47184,7 @@
         <v>0.43</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT230" t="n">
         <v>0.5600000000000001</v>
@@ -47590,10 +47590,10 @@
         <v>1.71</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU232" t="n">
         <v>1.36</v>
@@ -48202,7 +48202,7 @@
         <v>1.56</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU235" t="n">
         <v>1.23</v>
@@ -48605,7 +48605,7 @@
         <v>1.43</v>
       </c>
       <c r="AS237" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT237" t="n">
         <v>1.11</v>
@@ -48808,10 +48808,10 @@
         <v>2.21</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT238" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU238" t="n">
         <v>1.41</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT239" t="n">
         <v>0.82</v>
@@ -49214,10 +49214,10 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU240" t="n">
         <v>1.28</v>
@@ -49420,7 +49420,7 @@
         <v>2.44</v>
       </c>
       <c r="AT241" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU241" t="n">
         <v>1.7</v>
@@ -49620,7 +49620,7 @@
         <v>0.73</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT242" t="n">
         <v>0.89</v>
@@ -49826,7 +49826,7 @@
         <v>1.56</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU243" t="n">
         <v>1.22</v>
@@ -50026,7 +50026,7 @@
         <v>1.07</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT244" t="n">
         <v>1.06</v>
@@ -50232,7 +50232,7 @@
         <v>1.33</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU245" t="n">
         <v>1.46</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT246" t="n">
         <v>1.11</v>
@@ -50638,7 +50638,7 @@
         <v>2.78</v>
       </c>
       <c r="AT247" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU247" t="n">
         <v>2.49</v>
@@ -50838,7 +50838,7 @@
         <v>0.4</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT248" t="n">
         <v>0.5600000000000001</v>
@@ -51044,7 +51044,7 @@
         <v>2.44</v>
       </c>
       <c r="AT249" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU249" t="n">
         <v>1.7</v>
@@ -51244,10 +51244,10 @@
         <v>0.67</v>
       </c>
       <c r="AS250" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU250" t="n">
         <v>1.32</v>
@@ -51447,7 +51447,7 @@
         <v>1.13</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT251" t="n">
         <v>1.11</v>
@@ -52059,7 +52059,7 @@
         <v>1.18</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU254" t="n">
         <v>1.09</v>
@@ -52462,7 +52462,7 @@
         <v>0.87</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT256" t="n">
         <v>0.9399999999999999</v>
@@ -52668,7 +52668,7 @@
         <v>1.89</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU257" t="n">
         <v>1.85</v>
@@ -52868,7 +52868,7 @@
         <v>1</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AT258" t="n">
         <v>1.06</v>
@@ -53071,7 +53071,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.29</v>
+        <v>2.22</v>
       </c>
       <c r="AT259" t="n">
         <v>1.11</v>
@@ -53277,7 +53277,7 @@
         <v>2.78</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU260" t="n">
         <v>2.45</v>
@@ -53477,10 +53477,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU261" t="n">
         <v>1.59</v>
@@ -53886,7 +53886,7 @@
         <v>1.56</v>
       </c>
       <c r="AT263" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU263" t="n">
         <v>1.23</v>
@@ -54089,7 +54089,7 @@
         <v>1.89</v>
       </c>
       <c r="AT264" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AU264" t="n">
         <v>1.82</v>
@@ -54289,7 +54289,7 @@
         <v>0.88</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT265" t="n">
         <v>0.89</v>
@@ -54492,10 +54492,10 @@
         <v>0.65</v>
       </c>
       <c r="AS266" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU266" t="n">
         <v>1.31</v>
@@ -54695,10 +54695,10 @@
         <v>0.63</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU267" t="n">
         <v>1.34</v>
@@ -54901,7 +54901,7 @@
         <v>1.28</v>
       </c>
       <c r="AT268" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU268" t="n">
         <v>1.39</v>
@@ -55304,7 +55304,7 @@
         <v>2.63</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT270" t="n">
         <v>2.56</v>
@@ -56728,7 +56728,7 @@
         <v>1.56</v>
       </c>
       <c r="AT277" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AU277" t="n">
         <v>1.2</v>
@@ -57134,7 +57134,7 @@
         <v>1.35</v>
       </c>
       <c r="AT279" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="AU279" t="n">
         <v>1.63</v>
@@ -57334,7 +57334,7 @@
         <v>0.88</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT280" t="n">
         <v>0.89</v>
@@ -57537,7 +57537,7 @@
         <v>0.88</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT281" t="n">
         <v>0.82</v>
@@ -57795,6 +57795,1427 @@
       </c>
       <c r="BK282" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5947182</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45067.58333333334</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>1</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>2</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>4</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>['22', '46']</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['17', '50']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>2</v>
+      </c>
+      <c r="R283" t="n">
+        <v>4</v>
+      </c>
+      <c r="S283" t="n">
+        <v>6</v>
+      </c>
+      <c r="T283" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="V283" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5947183</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F284" t="n">
+        <v>6</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>3</v>
+      </c>
+      <c r="R284" t="n">
+        <v>2</v>
+      </c>
+      <c r="S284" t="n">
+        <v>5</v>
+      </c>
+      <c r="T284" t="n">
+        <v>7</v>
+      </c>
+      <c r="U284" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5947184</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45067.66666666666</v>
+      </c>
+      <c r="F285" t="n">
+        <v>6</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>4</v>
+      </c>
+      <c r="N285" t="n">
+        <v>5</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['53', '57', '67', '78']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>2</v>
+      </c>
+      <c r="R285" t="n">
+        <v>6</v>
+      </c>
+      <c r="S285" t="n">
+        <v>8</v>
+      </c>
+      <c r="T285" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V285" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X285" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5893373</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45068.54166666666</v>
+      </c>
+      <c r="F286" t="n">
+        <v>6</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['15', '48']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>4</v>
+      </c>
+      <c r="R286" t="n">
+        <v>3</v>
+      </c>
+      <c r="S286" t="n">
+        <v>7</v>
+      </c>
+      <c r="T286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V286" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5893374</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45068.54166666666</v>
+      </c>
+      <c r="F287" t="n">
+        <v>6</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>6</v>
+      </c>
+      <c r="R287" t="n">
+        <v>7</v>
+      </c>
+      <c r="S287" t="n">
+        <v>13</v>
+      </c>
+      <c r="T287" t="n">
+        <v>0</v>
+      </c>
+      <c r="U287" t="n">
+        <v>0</v>
+      </c>
+      <c r="V287" t="n">
+        <v>0</v>
+      </c>
+      <c r="W287" t="n">
+        <v>0</v>
+      </c>
+      <c r="X287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5893375</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45068.54166666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>6</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>9</v>
+      </c>
+      <c r="R288" t="n">
+        <v>2</v>
+      </c>
+      <c r="S288" t="n">
+        <v>11</v>
+      </c>
+      <c r="T288" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2</v>
+      </c>
+      <c r="V288" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5893376</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45068.54166666666</v>
+      </c>
+      <c r="F289" t="n">
+        <v>6</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1</v>
+      </c>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
+      <c r="S289" t="n">
+        <v>0</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U289" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V289" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -51712,7 +51712,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>5947167</v>
+        <v>5893359</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -51732,12 +51732,12 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Mladost Lučani</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Red Star Belgrade</t>
+          <t>Napredak</t>
         </is>
       </c>
       <c r="I253" t="n">
@@ -51753,10 +51753,10 @@
         <v>0</v>
       </c>
       <c r="M253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O253" t="inlineStr">
         <is>
@@ -51765,149 +51765,149 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q253" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R253" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S253" t="n">
+        <v>9</v>
+      </c>
+      <c r="T253" t="n">
+        <v>0</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0</v>
+      </c>
+      <c r="V253" t="n">
+        <v>0</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0</v>
+      </c>
+      <c r="X253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH253" t="n">
         <v>7</v>
       </c>
-      <c r="T253" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="U253" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V253" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W253" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X253" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y253" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z253" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA253" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AB253" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC253" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AD253" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="AE253" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AF253" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG253" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH253" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AI253" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AJ253" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="AK253" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AL253" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AM253" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AN253" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AO253" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AP253" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AQ253" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AR253" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AS253" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AT253" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="AU253" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="AV253" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AW253" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="AX253" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AY253" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ253" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="BA253" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BB253" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC253" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="BD253" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE253" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF253" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG253" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH253" t="n">
-        <v>4</v>
-      </c>
       <c r="BI253" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ253" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK253" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
@@ -51915,7 +51915,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>5893359</v>
+        <v>5947167</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -51935,12 +51935,12 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Mladost Lučani</t>
+          <t>Partizan</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Red Star Belgrade</t>
         </is>
       </c>
       <c r="I254" t="n">
@@ -51956,10 +51956,10 @@
         <v>0</v>
       </c>
       <c r="M254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O254" t="inlineStr">
         <is>
@@ -51968,125 +51968,125 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q254" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R254" t="n">
+        <v>4</v>
+      </c>
+      <c r="S254" t="n">
+        <v>7</v>
+      </c>
+      <c r="T254" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U254" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V254" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W254" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y254" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z254" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA254" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB254" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC254" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE254" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF254" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG254" t="n">
         <v>8</v>
       </c>
-      <c r="S254" t="n">
-        <v>9</v>
-      </c>
-      <c r="T254" t="n">
-        <v>0</v>
-      </c>
-      <c r="U254" t="n">
-        <v>0</v>
-      </c>
-      <c r="V254" t="n">
-        <v>0</v>
-      </c>
-      <c r="W254" t="n">
-        <v>0</v>
-      </c>
-      <c r="X254" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y254" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z254" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA254" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB254" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC254" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="AD254" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AE254" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="AF254" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG254" t="n">
-        <v>0</v>
-      </c>
       <c r="AH254" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI254" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AJ254" t="n">
-        <v>2.24</v>
+        <v>2.07</v>
       </c>
       <c r="AK254" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AL254" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM254" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AN254" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AO254" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP254" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AQ254" t="n">
-        <v>1.13</v>
+        <v>1.73</v>
       </c>
       <c r="AR254" t="n">
-        <v>0.67</v>
+        <v>2.73</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.83</v>
+        <v>2.56</v>
       </c>
       <c r="AU254" t="n">
-        <v>1.09</v>
+        <v>2.02</v>
       </c>
       <c r="AV254" t="n">
-        <v>1.22</v>
+        <v>2.15</v>
       </c>
       <c r="AW254" t="n">
-        <v>2.31</v>
+        <v>4.17</v>
       </c>
       <c r="AX254" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AY254" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ254" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA254" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BB254" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="BC254" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="BD254" t="n">
         <v>0</v>
@@ -52095,22 +52095,22 @@
         <v>0</v>
       </c>
       <c r="BF254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG254" t="n">
         <v>2</v>
       </c>
       <c r="BH254" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BI254" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ254" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BK254" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255">
@@ -57193,7 +57193,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>5893371</v>
+        <v>5893369</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -57213,182 +57213,182 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Radnik Surdulica</t>
+          <t>Radnički Niš</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Mladost Novi Sad</t>
+          <t>Javor Ivanjica</t>
         </is>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L280" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N280" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>['49']</t>
+          <t>['17', '27', '72']</t>
         </is>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>['65']</t>
+          <t>['24', '53']</t>
         </is>
       </c>
       <c r="Q280" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S280" t="n">
         <v>9</v>
       </c>
       <c r="T280" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="U280" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="V280" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="W280" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X280" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Y280" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="Z280" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AA280" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB280" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AC280" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ280" t="n">
         <v>2.05</v>
       </c>
-      <c r="AD280" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE280" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AF280" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG280" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AH280" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AI280" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AJ280" t="n">
-        <v>2.44</v>
-      </c>
       <c r="AK280" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AL280" t="n">
         <v>1.95</v>
       </c>
       <c r="AM280" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AN280" t="n">
-        <v>1.27</v>
+        <v>1.05</v>
       </c>
       <c r="AO280" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AP280" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="AQ280" t="n">
-        <v>1.25</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR280" t="n">
         <v>0.88</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="AU280" t="n">
-        <v>1.26</v>
+        <v>1.61</v>
       </c>
       <c r="AV280" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AW280" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="AX280" t="n">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="AY280" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="AZ280" t="n">
-        <v>2.52</v>
+        <v>3.4</v>
       </c>
       <c r="BA280" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="BB280" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC280" t="n">
         <v>1.9</v>
       </c>
-      <c r="BC280" t="n">
-        <v>2.24</v>
-      </c>
       <c r="BD280" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="BE280" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="BF280" t="n">
         <v>4</v>
       </c>
       <c r="BG280" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH280" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BI280" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ280" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BK280" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281">
@@ -57396,7 +57396,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>5893369</v>
+        <v>5893371</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -57416,182 +57416,182 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Radnički Niš</t>
+          <t>Radnik Surdulica</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Javor Ivanjica</t>
+          <t>Mladost Novi Sad</t>
         </is>
       </c>
       <c r="I281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K281" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N281" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>['17', '27', '72']</t>
+          <t>['49']</t>
         </is>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>['24', '53']</t>
+          <t>['65']</t>
         </is>
       </c>
       <c r="Q281" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R281" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S281" t="n">
         <v>9</v>
       </c>
       <c r="T281" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="U281" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V281" t="n">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="W281" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="X281" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="Y281" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="Z281" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AA281" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB281" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AC281" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="AD281" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="AE281" t="n">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="AF281" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AG281" t="n">
-        <v>6.8</v>
+        <v>7.25</v>
       </c>
       <c r="AH281" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AI281" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="AJ281" t="n">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="AK281" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AL281" t="n">
         <v>1.95</v>
       </c>
       <c r="AM281" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="AN281" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="AO281" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AP281" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="AQ281" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="AR281" t="n">
         <v>0.88</v>
       </c>
       <c r="AS281" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="AU281" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="AV281" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AW281" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="AX281" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="AY281" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="AZ281" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="BA281" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BB281" t="n">
-        <v>1.53</v>
+        <v>1.9</v>
       </c>
       <c r="BC281" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="BD281" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="BE281" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="BF281" t="n">
         <v>4</v>
       </c>
       <c r="BG281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH281" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ281" t="n">
         <v>14</v>
       </c>
-      <c r="BI281" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ281" t="n">
-        <v>18</v>
-      </c>
       <c r="BK281" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
@@ -57982,22 +57982,22 @@
         <v>4.3</v>
       </c>
       <c r="BF283" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI283" t="n">
         <v>6</v>
       </c>
-      <c r="BI283" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ283" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BK283" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284">
@@ -58005,7 +58005,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>5947183</v>
+        <v>5947184</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -58025,31 +58025,31 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Voždovac</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Čukarički</t>
+          <t>Bačka Topola</t>
         </is>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
       <c r="M284" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N284" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
@@ -58058,107 +58058,107 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>['53', '57', '67', '78']</t>
         </is>
       </c>
       <c r="Q284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R284" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S284" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T284" t="n">
-        <v>7</v>
+        <v>5.45</v>
       </c>
       <c r="U284" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="V284" t="n">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="W284" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X284" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="Y284" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="Z284" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AA284" t="n">
-        <v>5.95</v>
+        <v>6.4</v>
       </c>
       <c r="AB284" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AC284" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="AD284" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE284" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="AF284" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AG284" t="n">
         <v>10</v>
       </c>
       <c r="AH284" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AI284" t="n">
-        <v>3.9</v>
+        <v>3.56</v>
       </c>
       <c r="AJ284" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="AK284" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL284" t="n">
         <v>1.85</v>
       </c>
-      <c r="AL284" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AM284" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AN284" t="n">
-        <v>2.95</v>
+        <v>2.31</v>
       </c>
       <c r="AO284" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AP284" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AQ284" t="n">
-        <v>1.47</v>
+        <v>1.76</v>
       </c>
       <c r="AR284" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.56</v>
+        <v>2.22</v>
       </c>
       <c r="AU284" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV284" t="n">
         <v>1.41</v>
       </c>
-      <c r="AV284" t="n">
-        <v>1.6</v>
-      </c>
       <c r="AW284" t="n">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AX284" t="n">
         <v>0</v>
@@ -58185,10 +58185,10 @@
         <v>0</v>
       </c>
       <c r="BF284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG284" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH284" t="n">
         <v>1</v>
@@ -58197,10 +58197,10 @@
         <v>7</v>
       </c>
       <c r="BJ284" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BK284" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285">
@@ -58208,7 +58208,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>5947184</v>
+        <v>5947183</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -58228,140 +58228,140 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Voždovac</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Bačka Topola</t>
+          <t>Čukarički</t>
         </is>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
       <c r="J285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
       <c r="M285" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>3</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2</v>
+      </c>
+      <c r="S285" t="n">
         <v>5</v>
       </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>['90']</t>
-        </is>
-      </c>
-      <c r="P285" t="inlineStr">
-        <is>
-          <t>['53', '57', '67', '78']</t>
-        </is>
-      </c>
-      <c r="Q285" t="n">
-        <v>2</v>
-      </c>
-      <c r="R285" t="n">
-        <v>6</v>
-      </c>
-      <c r="S285" t="n">
-        <v>8</v>
-      </c>
       <c r="T285" t="n">
-        <v>5.45</v>
+        <v>7</v>
       </c>
       <c r="U285" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="V285" t="n">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="W285" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X285" t="n">
-        <v>3.04</v>
+        <v>3.2</v>
       </c>
       <c r="Y285" t="n">
-        <v>2.63</v>
+        <v>2.51</v>
       </c>
       <c r="Z285" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AA285" t="n">
-        <v>6.4</v>
+        <v>5.95</v>
       </c>
       <c r="AB285" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AC285" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD285" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AE285" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="AF285" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AG285" t="n">
         <v>10</v>
       </c>
       <c r="AH285" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI285" t="n">
-        <v>3.56</v>
+        <v>3.9</v>
       </c>
       <c r="AJ285" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="AK285" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AL285" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AM285" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AN285" t="n">
-        <v>2.31</v>
+        <v>2.95</v>
       </c>
       <c r="AO285" t="n">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AP285" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AQ285" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="AR285" t="n">
-        <v>2.18</v>
+        <v>1.59</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AT285" t="n">
-        <v>2.22</v>
+        <v>1.56</v>
       </c>
       <c r="AU285" t="n">
-        <v>1.69</v>
+        <v>1.41</v>
       </c>
       <c r="AV285" t="n">
-        <v>1.41</v>
+        <v>1.6</v>
       </c>
       <c r="AW285" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="AX285" t="n">
         <v>0</v>
@@ -58388,22 +58388,22 @@
         <v>0</v>
       </c>
       <c r="BF285" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG285" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BH285" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BI285" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ285" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BK285" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286">
@@ -58591,22 +58591,22 @@
         <v>0</v>
       </c>
       <c r="BF286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH286" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BI286" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ286" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK286" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
@@ -59000,19 +59000,19 @@
         <v>8</v>
       </c>
       <c r="BG288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH288" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI288" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ288" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK288" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289">
@@ -59077,13 +59077,13 @@
         </is>
       </c>
       <c r="Q289" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S289" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T289" t="n">
         <v>2.57</v>
@@ -59200,22 +59200,22 @@
         <v>0</v>
       </c>
       <c r="BF289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH289" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI289" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BJ289" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BK289" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Serbia SuperLiga_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT3" t="n">
         <v>0.79</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT4" t="n">
         <v>2.22</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5600000000000001</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0.78</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>0.99</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT20" t="n">
         <v>2.22</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT21" t="n">
         <v>0.83</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT22" t="n">
         <v>2.56</v>
@@ -5369,7 +5369,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU24" t="n">
         <v>1.25</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU26" t="n">
         <v>2.62</v>
@@ -5978,7 +5978,7 @@
         <v>1.28</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU27" t="n">
         <v>1.94</v>
@@ -6178,10 +6178,10 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU28" t="n">
         <v>1.06</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU29" t="n">
         <v>2.1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT32" t="n">
         <v>0.79</v>
@@ -7196,7 +7196,7 @@
         <v>1.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU33" t="n">
         <v>1.49</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT34" t="n">
         <v>1.11</v>
@@ -7599,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>0.86</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT37" t="n">
         <v>0.79</v>
@@ -8211,7 +8211,7 @@
         <v>1.05</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU38" t="n">
         <v>0.98</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT40" t="n">
         <v>2.22</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.64</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU42" t="n">
         <v>2.77</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU44" t="n">
         <v>0.95</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>1.58</v>
@@ -10647,7 +10647,7 @@
         <v>1.05</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU51" t="n">
         <v>1.68</v>
@@ -11053,7 +11053,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU52" t="n">
         <v>1.16</v>
@@ -11459,7 +11459,7 @@
         <v>1.33</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU54" t="n">
         <v>1.12</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT57" t="n">
         <v>2.22</v>
@@ -12268,10 +12268,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU58" t="n">
         <v>0.95</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT59" t="n">
         <v>1.56</v>
@@ -12674,10 +12674,10 @@
         <v>1.67</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU60" t="n">
         <v>2.53</v>
@@ -13286,7 +13286,7 @@
         <v>2.22</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU63" t="n">
         <v>2.15</v>
@@ -13486,10 +13486,10 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU64" t="n">
         <v>1.35</v>
@@ -13692,7 +13692,7 @@
         <v>1.44</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU65" t="n">
         <v>1.44</v>
@@ -14095,10 +14095,10 @@
         <v>1.25</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14298,7 +14298,7 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT68" t="n">
         <v>2.56</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT69" t="n">
         <v>0.79</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU70" t="n">
         <v>1.77</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
         <v>0.83</v>
@@ -15110,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT72" t="n">
         <v>1.94</v>
@@ -15316,7 +15316,7 @@
         <v>2.22</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU73" t="n">
         <v>1.99</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT74" t="n">
         <v>2.22</v>
@@ -15922,10 +15922,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU76" t="n">
         <v>1.09</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.36</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT79" t="n">
         <v>0.5600000000000001</v>
@@ -17140,10 +17140,10 @@
         <v>2</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU82" t="n">
         <v>1.89</v>
@@ -17343,7 +17343,7 @@
         <v>0.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT83" t="n">
         <v>0.79</v>
@@ -17549,7 +17549,7 @@
         <v>1.05</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU84" t="n">
         <v>1.37</v>
@@ -17752,7 +17752,7 @@
         <v>1.44</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU85" t="n">
         <v>1.59</v>
@@ -17955,7 +17955,7 @@
         <v>1.28</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU86" t="n">
         <v>1.33</v>
@@ -18155,7 +18155,7 @@
         <v>1.67</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT87" t="n">
         <v>2.22</v>
@@ -18564,7 +18564,7 @@
         <v>2.22</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU89" t="n">
         <v>1.94</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT90" t="n">
         <v>0.83</v>
@@ -19170,7 +19170,7 @@
         <v>2</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT92" t="n">
         <v>1.11</v>
@@ -19779,10 +19779,10 @@
         <v>0.2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU95" t="n">
         <v>2.07</v>
@@ -19985,7 +19985,7 @@
         <v>1.05</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU96" t="n">
         <v>1.36</v>
@@ -20185,7 +20185,7 @@
         <v>0.8</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5600000000000001</v>
@@ -20388,10 +20388,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20794,10 +20794,10 @@
         <v>1.6</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -20997,10 +20997,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU101" t="n">
         <v>1.83</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT103" t="n">
         <v>0.83</v>
@@ -21606,10 +21606,10 @@
         <v>0.71</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU104" t="n">
         <v>1.42</v>
@@ -22012,10 +22012,10 @@
         <v>0.83</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU106" t="n">
         <v>1.85</v>
@@ -22215,7 +22215,7 @@
         <v>0.33</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT107" t="n">
         <v>0.79</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU109" t="n">
         <v>1.8</v>
@@ -23030,7 +23030,7 @@
         <v>1.67</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU111" t="n">
         <v>1.62</v>
@@ -23230,10 +23230,10 @@
         <v>1.17</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU112" t="n">
         <v>2.15</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT113" t="n">
         <v>0.5600000000000001</v>
@@ -23639,7 +23639,7 @@
         <v>1.05</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -23839,10 +23839,10 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU115" t="n">
         <v>1.41</v>
@@ -24245,7 +24245,7 @@
         <v>2.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT117" t="n">
         <v>1.56</v>
@@ -24448,7 +24448,7 @@
         <v>0.43</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT118" t="n">
         <v>0.83</v>
@@ -24854,7 +24854,7 @@
         <v>1.86</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT120" t="n">
         <v>1.56</v>
@@ -25466,7 +25466,7 @@
         <v>1.67</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU123" t="n">
         <v>1.56</v>
@@ -25666,10 +25666,10 @@
         <v>0.71</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU124" t="n">
         <v>2.13</v>
@@ -25872,7 +25872,7 @@
         <v>0.78</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU125" t="n">
         <v>1.07</v>
@@ -26072,7 +26072,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT126" t="n">
         <v>0.79</v>
@@ -26275,10 +26275,10 @@
         <v>1.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU127" t="n">
         <v>1.5</v>
@@ -26681,7 +26681,7 @@
         <v>1.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT129" t="n">
         <v>1.11</v>
@@ -27090,7 +27090,7 @@
         <v>2.22</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU131" t="n">
         <v>1.75</v>
@@ -27493,7 +27493,7 @@
         <v>2.71</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT133" t="n">
         <v>2.56</v>
@@ -27696,10 +27696,10 @@
         <v>1.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU134" t="n">
         <v>1.08</v>
@@ -27899,10 +27899,10 @@
         <v>1</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU135" t="n">
         <v>2.25</v>
@@ -28105,7 +28105,7 @@
         <v>0.78</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU136" t="n">
         <v>1.11</v>
@@ -28308,7 +28308,7 @@
         <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.58</v>
@@ -28508,7 +28508,7 @@
         <v>1.75</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT138" t="n">
         <v>1.56</v>
@@ -28714,7 +28714,7 @@
         <v>1.28</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU139" t="n">
         <v>1.44</v>
@@ -29117,10 +29117,10 @@
         <v>1.5</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU141" t="n">
         <v>1.83</v>
@@ -29320,7 +29320,7 @@
         <v>0.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT142" t="n">
         <v>0.79</v>
@@ -29523,7 +29523,7 @@
         <v>2.38</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT143" t="n">
         <v>1.94</v>
@@ -29726,7 +29726,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT144" t="n">
         <v>0.79</v>
@@ -29929,7 +29929,7 @@
         <v>2.75</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT145" t="n">
         <v>2.56</v>
@@ -30335,7 +30335,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5600000000000001</v>
@@ -30538,10 +30538,10 @@
         <v>0.89</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU148" t="n">
         <v>2.01</v>
@@ -30744,7 +30744,7 @@
         <v>2.22</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.7</v>
@@ -31147,7 +31147,7 @@
         <v>1.56</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT151" t="n">
         <v>1.11</v>
@@ -31350,10 +31350,10 @@
         <v>0.67</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU152" t="n">
         <v>1.61</v>
@@ -31756,10 +31756,10 @@
         <v>0.11</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -31962,7 +31962,7 @@
         <v>1.28</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32365,10 +32365,10 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU157" t="n">
         <v>2.72</v>
@@ -32568,7 +32568,7 @@
         <v>1.67</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT158" t="n">
         <v>1.56</v>
@@ -32771,7 +32771,7 @@
         <v>2.44</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT159" t="n">
         <v>1.94</v>
@@ -33180,7 +33180,7 @@
         <v>0.78</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU161" t="n">
         <v>1.17</v>
@@ -33583,10 +33583,10 @@
         <v>1.2</v>
       </c>
       <c r="AS163" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,7 +33786,7 @@
         <v>0.4</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT164" t="n">
         <v>0.83</v>
@@ -34395,10 +34395,10 @@
         <v>0.6</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU167" t="n">
         <v>2.21</v>
@@ -34804,7 +34804,7 @@
         <v>1.67</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU169" t="n">
         <v>1.68</v>
@@ -35004,10 +35004,10 @@
         <v>1.4</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU170" t="n">
         <v>1.13</v>
@@ -35207,10 +35207,10 @@
         <v>1.4</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU171" t="n">
         <v>1.39</v>
@@ -35413,7 +35413,7 @@
         <v>1</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU172" t="n">
         <v>1.66</v>
@@ -35613,7 +35613,7 @@
         <v>1.8</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT173" t="n">
         <v>1.56</v>
@@ -35816,7 +35816,7 @@
         <v>1.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT174" t="n">
         <v>1.11</v>
@@ -36022,7 +36022,7 @@
         <v>1.28</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU175" t="n">
         <v>1.47</v>
@@ -36425,7 +36425,7 @@
         <v>2.5</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT177" t="n">
         <v>1.94</v>
@@ -36628,10 +36628,10 @@
         <v>0.82</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU178" t="n">
         <v>1.52</v>
@@ -37037,7 +37037,7 @@
         <v>2.22</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU180" t="n">
         <v>1.72</v>
@@ -37237,7 +37237,7 @@
         <v>0.45</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT181" t="n">
         <v>0.5600000000000001</v>
@@ -37643,7 +37643,7 @@
         <v>0.45</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT183" t="n">
         <v>0.79</v>
@@ -37849,7 +37849,7 @@
         <v>1.67</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU184" t="n">
         <v>1.69</v>
@@ -38049,10 +38049,10 @@
         <v>1.09</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU185" t="n">
         <v>2.17</v>
@@ -38255,7 +38255,7 @@
         <v>1</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU186" t="n">
         <v>1.68</v>
@@ -38458,7 +38458,7 @@
         <v>1.33</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU187" t="n">
         <v>1.2</v>
@@ -38861,7 +38861,7 @@
         <v>1.55</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT189" t="n">
         <v>1.11</v>
@@ -39064,7 +39064,7 @@
         <v>1.64</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT190" t="n">
         <v>1.56</v>
@@ -39470,10 +39470,10 @@
         <v>0.91</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT192" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU192" t="n">
         <v>1.35</v>
@@ -39673,7 +39673,7 @@
         <v>2.55</v>
       </c>
       <c r="AS193" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT193" t="n">
         <v>1.94</v>
@@ -39876,10 +39876,10 @@
         <v>0.25</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40079,7 +40079,7 @@
         <v>0.5</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT195" t="n">
         <v>0.79</v>
@@ -40285,7 +40285,7 @@
         <v>1.44</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU196" t="n">
         <v>1.41</v>
@@ -40488,7 +40488,7 @@
         <v>1.67</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU197" t="n">
         <v>1.74</v>
@@ -40894,7 +40894,7 @@
         <v>0.78</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU199" t="n">
         <v>1.3</v>
@@ -41094,7 +41094,7 @@
         <v>2.83</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT200" t="n">
         <v>2.56</v>
@@ -41297,7 +41297,7 @@
         <v>0.42</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT201" t="n">
         <v>0.5600000000000001</v>
@@ -41906,10 +41906,10 @@
         <v>0.75</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU204" t="n">
         <v>1.65</v>
@@ -42112,7 +42112,7 @@
         <v>1</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU205" t="n">
         <v>1.71</v>
@@ -42315,7 +42315,7 @@
         <v>1.33</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU206" t="n">
         <v>1.26</v>
@@ -42515,7 +42515,7 @@
         <v>1.42</v>
       </c>
       <c r="AS207" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT207" t="n">
         <v>1.11</v>
@@ -42718,7 +42718,7 @@
         <v>2.33</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT208" t="n">
         <v>1.94</v>
@@ -42921,7 +42921,7 @@
         <v>2.08</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT209" t="n">
         <v>2.22</v>
@@ -43124,10 +43124,10 @@
         <v>0.23</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU210" t="n">
         <v>2</v>
@@ -43330,7 +43330,7 @@
         <v>0.78</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU211" t="n">
         <v>1.29</v>
@@ -43736,7 +43736,7 @@
         <v>1.05</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU213" t="n">
         <v>1.36</v>
@@ -43936,7 +43936,7 @@
         <v>0.38</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT214" t="n">
         <v>0.79</v>
@@ -44139,10 +44139,10 @@
         <v>0.77</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU215" t="n">
         <v>1.66</v>
@@ -44342,7 +44342,7 @@
         <v>2.85</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT216" t="n">
         <v>2.56</v>
@@ -44545,10 +44545,10 @@
         <v>1.31</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU217" t="n">
         <v>1.68</v>
@@ -44748,7 +44748,7 @@
         <v>0.54</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT218" t="n">
         <v>0.83</v>
@@ -44951,7 +44951,7 @@
         <v>1.31</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT219" t="n">
         <v>1.11</v>
@@ -45360,7 +45360,7 @@
         <v>1.44</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU221" t="n">
         <v>1.4</v>
@@ -45560,10 +45560,10 @@
         <v>0.77</v>
       </c>
       <c r="AS222" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU222" t="n">
         <v>2.44</v>
@@ -46372,7 +46372,7 @@
         <v>0.36</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT226" t="n">
         <v>0.79</v>
@@ -46575,10 +46575,10 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU227" t="n">
         <v>2.06</v>
@@ -46778,7 +46778,7 @@
         <v>2.71</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT228" t="n">
         <v>2.56</v>
@@ -47187,7 +47187,7 @@
         <v>1.67</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU230" t="n">
         <v>1.74</v>
@@ -47390,7 +47390,7 @@
         <v>1.28</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU231" t="n">
         <v>1.45</v>
@@ -47793,10 +47793,10 @@
         <v>1.43</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU233" t="n">
         <v>1.89</v>
@@ -47996,10 +47996,10 @@
         <v>0.71</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU234" t="n">
         <v>1.1</v>
@@ -48199,7 +48199,7 @@
         <v>0.57</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT235" t="n">
         <v>0.79</v>
@@ -48402,10 +48402,10 @@
         <v>1.14</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU236" t="n">
         <v>2.49</v>
@@ -49014,7 +49014,7 @@
         <v>1</v>
       </c>
       <c r="AT239" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU239" t="n">
         <v>1.7</v>
@@ -49417,7 +49417,7 @@
         <v>2.21</v>
       </c>
       <c r="AS241" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT241" t="n">
         <v>1.94</v>
@@ -49623,7 +49623,7 @@
         <v>1</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU242" t="n">
         <v>1.66</v>
@@ -49823,7 +49823,7 @@
         <v>0.4</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT243" t="n">
         <v>0.79</v>
@@ -50029,7 +50029,7 @@
         <v>1.44</v>
       </c>
       <c r="AT244" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU244" t="n">
         <v>1.42</v>
@@ -50229,7 +50229,7 @@
         <v>0.53</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT245" t="n">
         <v>0.79</v>
@@ -50635,7 +50635,7 @@
         <v>2.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT247" t="n">
         <v>2.22</v>
@@ -50841,7 +50841,7 @@
         <v>1.05</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU248" t="n">
         <v>1.33</v>
@@ -51041,7 +51041,7 @@
         <v>2.07</v>
       </c>
       <c r="AS249" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT249" t="n">
         <v>1.94</v>
@@ -51450,7 +51450,7 @@
         <v>1.67</v>
       </c>
       <c r="AT251" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU251" t="n">
         <v>1.76</v>
@@ -51653,7 +51653,7 @@
         <v>1.28</v>
       </c>
       <c r="AT252" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU252" t="n">
         <v>1.42</v>
@@ -51853,7 +51853,7 @@
         <v>0.67</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT253" t="n">
         <v>0.83</v>
@@ -52056,7 +52056,7 @@
         <v>2.73</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT254" t="n">
         <v>2.56</v>
@@ -52259,10 +52259,10 @@
         <v>0.93</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT255" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU255" t="n">
         <v>1.63</v>
@@ -52465,7 +52465,7 @@
         <v>1.33</v>
       </c>
       <c r="AT256" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU256" t="n">
         <v>1.27</v>
@@ -52665,7 +52665,7 @@
         <v>1.8</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT257" t="n">
         <v>1.56</v>
@@ -52871,7 +52871,7 @@
         <v>1.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU258" t="n">
         <v>1.7</v>
@@ -53074,7 +53074,7 @@
         <v>2.22</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU259" t="n">
         <v>1.72</v>
@@ -53274,7 +53274,7 @@
         <v>1.69</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT260" t="n">
         <v>1.56</v>
@@ -53680,10 +53680,10 @@
         <v>0.44</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU262" t="n">
         <v>1.42</v>
@@ -53883,7 +53883,7 @@
         <v>0.5</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT263" t="n">
         <v>0.79</v>
@@ -54086,7 +54086,7 @@
         <v>1.94</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT264" t="n">
         <v>1.94</v>
@@ -54292,7 +54292,7 @@
         <v>1.05</v>
       </c>
       <c r="AT265" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU265" t="n">
         <v>1.33</v>
@@ -55101,10 +55101,10 @@
         <v>1.38</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU269" t="n">
         <v>1.63</v>
@@ -55507,7 +55507,7 @@
         <v>1.25</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT271" t="n">
         <v>1.11</v>
@@ -55710,10 +55710,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AT272" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU272" t="n">
         <v>1.38</v>
@@ -55913,10 +55913,10 @@
         <v>0.59</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AU273" t="n">
         <v>1.11</v>
@@ -56116,7 +56116,7 @@
         <v>1.18</v>
       </c>
       <c r="AS274" t="n">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AT274" t="n">
         <v>1.11</v>
@@ -56319,10 +56319,10 @@
         <v>1.29</v>
       </c>
       <c r="AS275" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="AT275" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU275" t="n">
         <v>2.4</v>
@@ -56522,10 +56522,10 @@
         <v>1.18</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU276" t="n">
         <v>1.77</v>
@@ -56725,7 +56725,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="AT277" t="n">
         <v>0.83</v>
@@ -56928,10 +56928,10 @@
         <v>1.12</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="AT278" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AU278" t="n">
         <v>1.95</v>
@@ -57131,7 +57131,7 @@
         <v>0.71</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT279" t="n">
         <v>0.79</v>
@@ -57337,7 +57337,7 @@
         <v>1</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU280" t="n">
         <v>1.61</v>
@@ -57540,7 +57540,7 @@
         <v>1.33</v>
       </c>
       <c r="AT281" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU281" t="n">
         <v>1.26</v>
@@ -59216,6 +59216,1630 @@
       </c>
       <c r="BK289" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5893377</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>7</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Kolubara</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Radnički Niš</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>2</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1</v>
+      </c>
+      <c r="N290" t="n">
+        <v>3</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['79', '90+1']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>6</v>
+      </c>
+      <c r="R290" t="n">
+        <v>3</v>
+      </c>
+      <c r="S290" t="n">
+        <v>9</v>
+      </c>
+      <c r="T290" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V290" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5893380</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F291" t="n">
+        <v>7</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Spartak Subotica</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Radnik Surdulica</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>2</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>2</v>
+      </c>
+      <c r="M291" t="n">
+        <v>2</v>
+      </c>
+      <c r="N291" t="n">
+        <v>4</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['17', '38']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['49', '52']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>4</v>
+      </c>
+      <c r="R291" t="n">
+        <v>1</v>
+      </c>
+      <c r="S291" t="n">
+        <v>5</v>
+      </c>
+      <c r="T291" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U291" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5893379</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F292" t="n">
+        <v>7</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>5</v>
+      </c>
+      <c r="R292" t="n">
+        <v>10</v>
+      </c>
+      <c r="S292" t="n">
+        <v>15</v>
+      </c>
+      <c r="T292" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5893378</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45073.5</v>
+      </c>
+      <c r="F293" t="n">
+        <v>7</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>Mladost Lučani</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Mladost Novi Sad</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>2</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1</v>
+      </c>
+      <c r="N293" t="n">
+        <v>3</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['67', '70']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>4</v>
+      </c>
+      <c r="R293" t="n">
+        <v>3</v>
+      </c>
+      <c r="S293" t="n">
+        <v>7</v>
+      </c>
+      <c r="T293" t="n">
+        <v>0</v>
+      </c>
+      <c r="U293" t="n">
+        <v>0</v>
+      </c>
+      <c r="V293" t="n">
+        <v>0</v>
+      </c>
+      <c r="W293" t="n">
+        <v>0</v>
+      </c>
+      <c r="X293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5947188</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45073.58333333334</v>
+      </c>
+      <c r="F294" t="n">
+        <v>7</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>Partizan</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Voždovac</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>2</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>2</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>3</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['25', '35']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>8</v>
+      </c>
+      <c r="R294" t="n">
+        <v>3</v>
+      </c>
+      <c r="S294" t="n">
+        <v>11</v>
+      </c>
+      <c r="T294" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V294" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X294" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>23</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5947186</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>7</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Čukarički</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Radnički Kragujevac</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>1</v>
+      </c>
+      <c r="K295" t="n">
+        <v>3</v>
+      </c>
+      <c r="L295" t="n">
+        <v>2</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1</v>
+      </c>
+      <c r="N295" t="n">
+        <v>3</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>['15', '21']</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>6</v>
+      </c>
+      <c r="R295" t="n">
+        <v>3</v>
+      </c>
+      <c r="S295" t="n">
+        <v>9</v>
+      </c>
+      <c r="T295" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V295" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5947185</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45074.5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Bačka Topola</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>2</v>
+      </c>
+      <c r="R296" t="n">
+        <v>7</v>
+      </c>
+      <c r="S296" t="n">
+        <v>9</v>
+      </c>
+      <c r="T296" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U296" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V296" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5947187</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Serbia SuperLiga</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45074.58333333334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>7</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>0</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>2</v>
+      </c>
+      <c r="M297" t="n">
+        <v>2</v>
+      </c>
+      <c r="N297" t="n">
+        <v>4</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['53', '71']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['60', '74']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>10</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2</v>
+      </c>
+      <c r="S297" t="n">
+        <v>12</v>
+      </c>
+      <c r="T297" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U297" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V297" t="n">
+        <v>15</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X297" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
